--- a/Code/Results/Cases/Case_2_57/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_57/res_line/pl_mw.xlsx
@@ -415,13 +415,13 @@
         <v>3.756220067964762</v>
       </c>
       <c r="C2">
-        <v>1.467002882889005</v>
+        <v>1.467002882888835</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2282429314438303</v>
+        <v>0.2282429314438446</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
@@ -430,7 +430,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>2.717649549307509</v>
+        <v>2.717649549307453</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5927179031495484</v>
+        <v>0.5927179031495626</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.21451256401366</v>
+        <v>3.214512564013546</v>
       </c>
       <c r="C3">
-        <v>1.252284590767431</v>
+        <v>1.252284590767204</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1951115790140818</v>
+        <v>0.1951115790140037</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
@@ -468,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2.389788191104529</v>
+        <v>2.389788191104515</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5060668175454026</v>
+        <v>0.5060668175454595</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.89056321194596</v>
+        <v>2.890563211945846</v>
       </c>
       <c r="C4">
-        <v>1.124233486817786</v>
+        <v>1.124233486817218</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1754152251071872</v>
+        <v>0.1754152251071659</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
@@ -506,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2.196461611214161</v>
+        <v>2.196461611214204</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4544796309599377</v>
+        <v>0.4544796309599519</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.760363797658272</v>
+        <v>2.760363797658385</v>
       </c>
       <c r="C5">
-        <v>1.072841977929102</v>
+        <v>1.072841977929556</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1675250390052199</v>
+        <v>0.1675250390051986</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4337967950922277</v>
+        <v>0.4337967950921993</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,7 +564,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.738843979407591</v>
+        <v>2.738843979407704</v>
       </c>
       <c r="C6">
         <v>1.064351858841178</v>
@@ -573,16 +573,16 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1662224036444613</v>
+        <v>0.1662224036443902</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2.106686876531725</v>
+        <v>2.106686876531697</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4303811226716192</v>
+        <v>0.4303811226716263</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.888800406141058</v>
+        <v>2.888800406141002</v>
       </c>
       <c r="C7">
-        <v>1.12353740138218</v>
+        <v>1.123537401382009</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1753082959475165</v>
+        <v>0.1753082959475023</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>1.139311062524627</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4541994034004588</v>
+        <v>0.4541994034004517</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.567405643766847</v>
+        <v>3.56740564376679</v>
       </c>
       <c r="C8">
-        <v>1.392077514509708</v>
+        <v>1.392077514509822</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2166680777917378</v>
+        <v>0.2166680777917449</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2.602755166098888</v>
+        <v>2.602755166098873</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.986499261977428</v>
+        <v>4.986499261977315</v>
       </c>
       <c r="C9">
-        <v>1.957423059658993</v>
+        <v>1.957423059659448</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.3043169381175872</v>
+        <v>0.3043169381175446</v>
       </c>
       <c r="F9">
         <v>1.895061171845313</v>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3.480683156407778</v>
+        <v>3.480683156407835</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -719,22 +719,22 @@
         <v>6.116718017527432</v>
       </c>
       <c r="C10">
-        <v>2.411353410588561</v>
+        <v>2.411353410587935</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.3751334703376941</v>
+        <v>0.3751334703376514</v>
       </c>
       <c r="F10">
-        <v>2.275587181990957</v>
+        <v>2.275587181990971</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.200857732611979</v>
+        <v>4.200857732611951</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.975496420047719</v>
+        <v>0.9754964200476621</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.659933180072017</v>
+        <v>6.659933180072187</v>
       </c>
       <c r="C11">
-        <v>2.630683534992386</v>
+        <v>2.630683534991817</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.4094684144664313</v>
+        <v>0.4094684144663958</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.552720736719749</v>
+        <v>4.552720736719721</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.064711088686678</v>
+        <v>1.064711088686664</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,25 +792,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.870921847859449</v>
+        <v>6.870921847859563</v>
       </c>
       <c r="C12">
-        <v>2.716076073091244</v>
+        <v>2.716076073091699</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.4228552442510463</v>
+        <v>0.4228552442510676</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.690317641106333</v>
+        <v>4.690317641106304</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.099472575342276</v>
+        <v>1.099472575342233</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -833,16 +833,16 @@
         <v>6.825225885259556</v>
       </c>
       <c r="C13">
-        <v>2.697572088755464</v>
+        <v>2.69757208875501</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.4199535255391353</v>
+        <v>0.4199535255391282</v>
       </c>
       <c r="F13">
-        <v>2.504295469236098</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.677178067560703</v>
+        <v>6.677178067560646</v>
       </c>
       <c r="C14">
-        <v>2.637658715345879</v>
+        <v>2.637658715345367</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.41056150799524</v>
+        <v>0.4105615079952543</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.587220415206048</v>
+        <v>6.587220415205991</v>
       </c>
       <c r="C15">
-        <v>2.601281163201463</v>
+        <v>2.601281163202316</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.4048614897986127</v>
+        <v>0.4048614897986269</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.05274547614664</v>
+        <v>1.052745476146697</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.081890802590522</v>
+        <v>6.081890802590294</v>
       </c>
       <c r="C16">
         <v>2.397317146514524</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.3729386504073204</v>
+        <v>0.3729386504072991</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.178419959904858</v>
+        <v>4.178419959904744</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.9697905733867174</v>
+        <v>0.9697905733867458</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.780036018994451</v>
+        <v>5.780036018994394</v>
       </c>
       <c r="C17">
-        <v>2.275791392516339</v>
+        <v>2.275791392516112</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.3539489022177733</v>
+        <v>0.3539489022177804</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>3.984580450025248</v>
+        <v>3.984580450025163</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.9204079504565073</v>
+        <v>0.9204079504564788</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.609073717902334</v>
+        <v>5.60907371790222</v>
       </c>
       <c r="C18">
-        <v>2.207065490420746</v>
+        <v>2.207065490420121</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.3432202590589526</v>
+        <v>0.3432202590589597</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>3.875309321736438</v>
+        <v>3.875309321736466</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.8924958684613813</v>
+        <v>0.8924958684613955</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.551615794497252</v>
+        <v>5.551615794497309</v>
       </c>
       <c r="C19">
-        <v>2.183984435768082</v>
+        <v>2.183984435768537</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.3396188818246131</v>
+        <v>0.3396188818246628</v>
       </c>
       <c r="F19">
-        <v>2.087706772602971</v>
+        <v>2.087706772602957</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3.838670254620382</v>
+        <v>3.838670254620354</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.8831243175064003</v>
+        <v>0.8831243175064429</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.811886904197991</v>
+        <v>5.811886904197934</v>
       </c>
       <c r="C20">
-        <v>2.288603499817725</v>
+        <v>2.288603499818521</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.3559498241744947</v>
+        <v>0.3559498241745587</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.9256126298404723</v>
+        <v>0.9256126298405576</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.720509626193177</v>
+        <v>6.72050962619312</v>
       </c>
       <c r="C21">
-        <v>2.655188737348226</v>
+        <v>2.655188737348396</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.4133089804875141</v>
+        <v>0.4133089804875283</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.592173720149333</v>
+        <v>4.59217372014939</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.34589408499221</v>
+        <v>7.345894084992381</v>
       </c>
       <c r="C22">
-        <v>2.90872640621069</v>
+        <v>2.90872640621086</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.4530942139852385</v>
+        <v>0.4530942139852669</v>
       </c>
       <c r="F22">
         <v>2.667416158031983</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>5.001896351902843</v>
+        <v>5.001896351902872</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.17794997627901</v>
+        <v>1.177949976279038</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.008782195394588</v>
+        <v>7.008782195394474</v>
       </c>
       <c r="C23">
-        <v>2.771933186857325</v>
+        <v>2.771933186857154</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.4316174543463234</v>
+        <v>0.4316174543463376</v>
       </c>
       <c r="F23">
         <v>2.562285531758789</v>
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.780496072423261</v>
+        <v>4.780496072423205</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.122218799467078</v>
+        <v>1.122218799467021</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1251,13 +1251,13 @@
         <v>5.797479168301436</v>
       </c>
       <c r="C24">
-        <v>2.282807627814691</v>
+        <v>2.282807627815885</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.3550446249844512</v>
+        <v>0.355044624984366</v>
       </c>
       <c r="F24">
         <v>2.170038921573038</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>3.995750450541436</v>
+        <v>3.995750450541351</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.9232581180838793</v>
+        <v>0.9232581180838508</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1289,13 +1289,13 @@
         <v>4.590058431739351</v>
       </c>
       <c r="C25">
-        <v>1.79897097285658</v>
+        <v>1.798970972857035</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2796834171687763</v>
+        <v>0.2796834171687195</v>
       </c>
       <c r="F25">
         <v>1.757113814925404</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>3.232240722976428</v>
+        <v>3.232240722976357</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.726996360537683</v>
+        <v>0.7269963605377256</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_57/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_57/res_line/pl_mw.xlsx
@@ -415,13 +415,13 @@
         <v>3.756220067964762</v>
       </c>
       <c r="C2">
-        <v>1.467002882888835</v>
+        <v>1.467002882889005</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2282429314438446</v>
+        <v>0.2282429314438303</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
@@ -430,7 +430,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>2.717649549307453</v>
+        <v>2.717649549307509</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5927179031495626</v>
+        <v>0.5927179031495484</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.214512564013546</v>
+        <v>3.21451256401366</v>
       </c>
       <c r="C3">
-        <v>1.252284590767204</v>
+        <v>1.252284590767431</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1951115790140037</v>
+        <v>0.1951115790140818</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
@@ -468,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2.389788191104515</v>
+        <v>2.389788191104529</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5060668175454595</v>
+        <v>0.5060668175454026</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.890563211945846</v>
+        <v>2.89056321194596</v>
       </c>
       <c r="C4">
-        <v>1.124233486817218</v>
+        <v>1.124233486817786</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1754152251071659</v>
+        <v>0.1754152251071872</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
@@ -506,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2.196461611214204</v>
+        <v>2.196461611214161</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4544796309599519</v>
+        <v>0.4544796309599377</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.760363797658385</v>
+        <v>2.760363797658272</v>
       </c>
       <c r="C5">
-        <v>1.072841977929556</v>
+        <v>1.072841977929102</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1675250390051986</v>
+        <v>0.1675250390052199</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4337967950921993</v>
+        <v>0.4337967950922277</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,7 +564,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.738843979407704</v>
+        <v>2.738843979407591</v>
       </c>
       <c r="C6">
         <v>1.064351858841178</v>
@@ -573,16 +573,16 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1662224036443902</v>
+        <v>0.1662224036444613</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2.106686876531697</v>
+        <v>2.106686876531725</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4303811226716263</v>
+        <v>0.4303811226716192</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.888800406141002</v>
+        <v>2.888800406141058</v>
       </c>
       <c r="C7">
-        <v>1.123537401382009</v>
+        <v>1.12353740138218</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1753082959475023</v>
+        <v>0.1753082959475165</v>
       </c>
       <c r="F7">
-        <v>1.139311062524627</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4541994034004517</v>
+        <v>0.4541994034004588</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.56740564376679</v>
+        <v>3.567405643766847</v>
       </c>
       <c r="C8">
-        <v>1.392077514509822</v>
+        <v>1.392077514509708</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2166680777917449</v>
+        <v>0.2166680777917378</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2.602755166098873</v>
+        <v>2.602755166098888</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.986499261977315</v>
+        <v>4.986499261977428</v>
       </c>
       <c r="C9">
-        <v>1.957423059659448</v>
+        <v>1.957423059658993</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.3043169381175446</v>
+        <v>0.3043169381175872</v>
       </c>
       <c r="F9">
         <v>1.895061171845313</v>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3.480683156407835</v>
+        <v>3.480683156407778</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -719,22 +719,22 @@
         <v>6.116718017527432</v>
       </c>
       <c r="C10">
-        <v>2.411353410587935</v>
+        <v>2.411353410588561</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.3751334703376514</v>
+        <v>0.3751334703376941</v>
       </c>
       <c r="F10">
-        <v>2.275587181990971</v>
+        <v>2.275587181990957</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.200857732611951</v>
+        <v>4.200857732611979</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.9754964200476621</v>
+        <v>0.975496420047719</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.659933180072187</v>
+        <v>6.659933180072017</v>
       </c>
       <c r="C11">
-        <v>2.630683534991817</v>
+        <v>2.630683534992386</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.4094684144663958</v>
+        <v>0.4094684144664313</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.552720736719721</v>
+        <v>4.552720736719749</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.064711088686664</v>
+        <v>1.064711088686678</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,25 +792,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.870921847859563</v>
+        <v>6.870921847859449</v>
       </c>
       <c r="C12">
-        <v>2.716076073091699</v>
+        <v>2.716076073091244</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.4228552442510676</v>
+        <v>0.4228552442510463</v>
       </c>
       <c r="F12">
-        <v>2.518780942186368</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.690317641106304</v>
+        <v>4.690317641106333</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.099472575342233</v>
+        <v>1.099472575342276</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -833,16 +833,16 @@
         <v>6.825225885259556</v>
       </c>
       <c r="C13">
-        <v>2.69757208875501</v>
+        <v>2.697572088755464</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.4199535255391282</v>
+        <v>0.4199535255391353</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>2.504295469236098</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.677178067560646</v>
+        <v>6.677178067560703</v>
       </c>
       <c r="C14">
-        <v>2.637658715345367</v>
+        <v>2.637658715345879</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.4105615079952543</v>
+        <v>0.41056150799524</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.587220415205991</v>
+        <v>6.587220415206048</v>
       </c>
       <c r="C15">
-        <v>2.601281163202316</v>
+        <v>2.601281163201463</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.4048614897986269</v>
+        <v>0.4048614897986127</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.052745476146697</v>
+        <v>1.05274547614664</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.081890802590294</v>
+        <v>6.081890802590522</v>
       </c>
       <c r="C16">
         <v>2.397317146514524</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.3729386504072991</v>
+        <v>0.3729386504073204</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.178419959904744</v>
+        <v>4.178419959904858</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.9697905733867458</v>
+        <v>0.9697905733867174</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.780036018994394</v>
+        <v>5.780036018994451</v>
       </c>
       <c r="C17">
-        <v>2.275791392516112</v>
+        <v>2.275791392516339</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.3539489022177804</v>
+        <v>0.3539489022177733</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>3.984580450025163</v>
+        <v>3.984580450025248</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.9204079504564788</v>
+        <v>0.9204079504565073</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.60907371790222</v>
+        <v>5.609073717902334</v>
       </c>
       <c r="C18">
-        <v>2.207065490420121</v>
+        <v>2.207065490420746</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.3432202590589597</v>
+        <v>0.3432202590589526</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>3.875309321736466</v>
+        <v>3.875309321736438</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.8924958684613955</v>
+        <v>0.8924958684613813</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.551615794497309</v>
+        <v>5.551615794497252</v>
       </c>
       <c r="C19">
-        <v>2.183984435768537</v>
+        <v>2.183984435768082</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.3396188818246628</v>
+        <v>0.3396188818246131</v>
       </c>
       <c r="F19">
-        <v>2.087706772602957</v>
+        <v>2.087706772602971</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3.838670254620354</v>
+        <v>3.838670254620382</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.8831243175064429</v>
+        <v>0.8831243175064003</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.811886904197934</v>
+        <v>5.811886904197991</v>
       </c>
       <c r="C20">
-        <v>2.288603499818521</v>
+        <v>2.288603499817725</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.3559498241745587</v>
+        <v>0.3559498241744947</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.9256126298405576</v>
+        <v>0.9256126298404723</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.72050962619312</v>
+        <v>6.720509626193177</v>
       </c>
       <c r="C21">
-        <v>2.655188737348396</v>
+        <v>2.655188737348226</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.4133089804875283</v>
+        <v>0.4133089804875141</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.59217372014939</v>
+        <v>4.592173720149333</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.345894084992381</v>
+        <v>7.34589408499221</v>
       </c>
       <c r="C22">
-        <v>2.90872640621086</v>
+        <v>2.90872640621069</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.4530942139852669</v>
+        <v>0.4530942139852385</v>
       </c>
       <c r="F22">
         <v>2.667416158031983</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>5.001896351902872</v>
+        <v>5.001896351902843</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.177949976279038</v>
+        <v>1.17794997627901</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.008782195394474</v>
+        <v>7.008782195394588</v>
       </c>
       <c r="C23">
-        <v>2.771933186857154</v>
+        <v>2.771933186857325</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.4316174543463376</v>
+        <v>0.4316174543463234</v>
       </c>
       <c r="F23">
         <v>2.562285531758789</v>
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.780496072423205</v>
+        <v>4.780496072423261</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.122218799467021</v>
+        <v>1.122218799467078</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1251,13 +1251,13 @@
         <v>5.797479168301436</v>
       </c>
       <c r="C24">
-        <v>2.282807627815885</v>
+        <v>2.282807627814691</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.355044624984366</v>
+        <v>0.3550446249844512</v>
       </c>
       <c r="F24">
         <v>2.170038921573038</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>3.995750450541351</v>
+        <v>3.995750450541436</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.9232581180838508</v>
+        <v>0.9232581180838793</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1289,13 +1289,13 @@
         <v>4.590058431739351</v>
       </c>
       <c r="C25">
-        <v>1.798970972857035</v>
+        <v>1.79897097285658</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2796834171687195</v>
+        <v>0.2796834171687763</v>
       </c>
       <c r="F25">
         <v>1.757113814925404</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>3.232240722976357</v>
+        <v>3.232240722976428</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.7269963605377256</v>
+        <v>0.726996360537683</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_57/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_57/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.756220067964762</v>
+        <v>3.713757138263986</v>
       </c>
       <c r="C2">
-        <v>1.467002882889005</v>
+        <v>1.445363779722186</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2282429314438303</v>
+        <v>0.2271438405408333</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007620048091411496</v>
       </c>
       <c r="H2">
-        <v>2.717649549307509</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.727592783174273</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5927179031495484</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.5880758164497379</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.21451256401366</v>
+        <v>3.179266481664456</v>
       </c>
       <c r="C3">
-        <v>1.252284590767431</v>
+        <v>1.23412290184973</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1951115790140818</v>
+        <v>0.1941474664019083</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007744114968546342</v>
       </c>
       <c r="H3">
-        <v>2.389788191104529</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.404424512314193</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5060668175454026</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.5022590889923819</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.89056321194596</v>
+        <v>2.85966742693023</v>
       </c>
       <c r="C4">
-        <v>1.124233486817786</v>
+        <v>1.108165527720303</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1754152251071872</v>
+        <v>0.1745235081146674</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0007821364934172272</v>
       </c>
       <c r="H4">
-        <v>2.196461611214161</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.213875840956362</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4544796309599377</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.4511616347703367</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.760363797658272</v>
+        <v>2.731228267146093</v>
       </c>
       <c r="C5">
-        <v>1.072841977929102</v>
+        <v>1.057620584711231</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1675250390052199</v>
+        <v>0.1666606193075495</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0007853165187456536</v>
       </c>
       <c r="H5">
-        <v>2.119389380553869</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.137915904196049</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4337967950922277</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.4306740046440751</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.738843979407591</v>
+        <v>2.710000183911802</v>
       </c>
       <c r="C6">
-        <v>1.064351858841178</v>
+        <v>1.049270733862443</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1662224036444613</v>
+        <v>0.165362394556702</v>
       </c>
       <c r="F6">
         <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.000785846630014381</v>
       </c>
       <c r="H6">
-        <v>2.106686876531725</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.125397069578284</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4303811226716192</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.4272905162740486</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.888800406141058</v>
+        <v>2.85792840192488</v>
       </c>
       <c r="C7">
-        <v>1.12353740138218</v>
+        <v>1.107480881767742</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1753082959475165</v>
+        <v>0.1744169555118447</v>
       </c>
       <c r="F7">
         <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0007821792444897597</v>
       </c>
       <c r="H7">
-        <v>2.195415630695024</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.212844933491297</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4541994034004588</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.4508840559342104</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.567405643766847</v>
+        <v>3.52745303721008</v>
       </c>
       <c r="C8">
-        <v>1.392077514509708</v>
+        <v>1.371648509534452</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2166680777917378</v>
+        <v>0.2156179906649598</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007662636352029735</v>
       </c>
       <c r="H8">
-        <v>2.602755166098888</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.614342275621212</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.5624615890229023</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.5581127426822832</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.986499261977428</v>
+        <v>4.927650177915041</v>
       </c>
       <c r="C9">
-        <v>1.957423059658993</v>
+        <v>1.927875866768204</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.3043169381175872</v>
+        <v>0.3028470984033476</v>
       </c>
       <c r="F9">
         <v>1.895061171845313</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007356345621393689</v>
       </c>
       <c r="H9">
-        <v>3.480683156407778</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.479630560041585</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.7912037848936109</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.7845734422861952</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.116718017527432</v>
+        <v>6.042482925591344</v>
       </c>
       <c r="C10">
-        <v>2.411353410588561</v>
+        <v>2.374374480396341</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.3751334703376941</v>
+        <v>0.3732404741489077</v>
       </c>
       <c r="F10">
         <v>2.275587181990957</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007130265191804639</v>
       </c>
       <c r="H10">
-        <v>4.200857732611979</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>4.189127636659464</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.975496420047719</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.9668911727626437</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.659933180072017</v>
+        <v>6.578091996863691</v>
       </c>
       <c r="C11">
-        <v>2.630683534992386</v>
+        <v>2.590031268880921</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.4094684144664313</v>
+        <v>0.4073411946412904</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0007025837500096502</v>
       </c>
       <c r="H11">
-        <v>4.552720736719749</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>4.535609313061912</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.064711088686678</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>1.055094009573892</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.870921847859449</v>
+        <v>6.786078811702453</v>
       </c>
       <c r="C12">
-        <v>2.716076073091244</v>
+        <v>2.673974451908975</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.4228552442510463</v>
+        <v>0.4206312182010521</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0006985918044705723</v>
       </c>
       <c r="H12">
-        <v>4.690317641106333</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>4.671066086386077</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.099472575342276</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>1.089450018532048</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.825225885259556</v>
+        <v>6.741035442297118</v>
       </c>
       <c r="C13">
-        <v>2.697572088755464</v>
+        <v>2.655785529901209</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.4199535255391353</v>
+        <v>0.4177507516839682</v>
       </c>
       <c r="F13">
         <v>2.504295469236098</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0006994534846464455</v>
       </c>
       <c r="H13">
-        <v>4.660473823971643</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>4.64168827114645</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.091938736382019</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>1.082004619210537</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.677178067560703</v>
+        <v>6.595092598148199</v>
       </c>
       <c r="C14">
-        <v>2.637658715345879</v>
+        <v>2.596888493315191</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.41056150799524</v>
+        <v>0.4084265014201307</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0007022561796255199</v>
       </c>
       <c r="H14">
-        <v>4.563947897202894</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>4.546662643702803</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.067549976233536</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>1.057900027950353</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.587220415206048</v>
+        <v>6.506407239754026</v>
       </c>
       <c r="C15">
-        <v>2.601281163201463</v>
+        <v>2.561125297568537</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.4048614897986127</v>
+        <v>0.4027668600322372</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0007039675269508433</v>
       </c>
       <c r="H15">
-        <v>4.505419476681453</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>4.489038909399795</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.05274547614664</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>1.043266466971019</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.081890802590522</v>
+        <v>6.008137904896955</v>
       </c>
       <c r="C16">
-        <v>2.397317146514524</v>
+        <v>2.360571123337309</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.3729386504073204</v>
+        <v>0.3710599584562075</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007137046159271204</v>
       </c>
       <c r="H16">
-        <v>4.178419959904858</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>4.167028899085864</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.9697905733867174</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.9612487030298382</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.780036018994451</v>
+        <v>5.710438010679525</v>
       </c>
       <c r="C17">
-        <v>2.275791392516339</v>
+        <v>2.241052326104978</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.3539489022177733</v>
+        <v>0.3521907199317056</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007196280729754817</v>
       </c>
       <c r="H17">
-        <v>3.984580450025248</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.976099574583969</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.9204079504565073</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.912408284159028</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.609073717902334</v>
+        <v>5.541810972970893</v>
       </c>
       <c r="C18">
-        <v>2.207065490420746</v>
+        <v>2.173454465149973</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.3432202590589526</v>
+        <v>0.3415276251696611</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007230212554516446</v>
       </c>
       <c r="H18">
-        <v>3.875309321736438</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.868455022355704</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.8924958684613813</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.8847978446264619</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.551615794497252</v>
+        <v>5.485135228776471</v>
       </c>
       <c r="C19">
-        <v>2.183984435768082</v>
+        <v>2.150751237308043</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.3396188818246131</v>
+        <v>0.3379478471628019</v>
       </c>
       <c r="F19">
         <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007241681452271783</v>
       </c>
       <c r="H19">
-        <v>3.838670254620382</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.832359245191157</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.8831243175064003</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.8755268197593011</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.811886904197991</v>
+        <v>5.741852454920434</v>
       </c>
       <c r="C20">
-        <v>2.288603499817725</v>
+        <v>2.253653612591506</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.3559498241744947</v>
+        <v>0.3541792160278945</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007189990379279049</v>
       </c>
       <c r="H20">
-        <v>4.004979604253037</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.996193995290952</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.9256126298404723</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.9175563394934869</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.720509626193177</v>
+        <v>6.637809510673435</v>
       </c>
       <c r="C21">
-        <v>2.655188737348226</v>
+        <v>2.614121734807782</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.4133089804875141</v>
+        <v>0.4111543100290902</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0007014341139932487</v>
       </c>
       <c r="H21">
-        <v>4.592173720149333</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>4.57445083289636</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.074685110245071</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>1.064952359445954</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.34589408499221</v>
+        <v>7.254181367317074</v>
       </c>
       <c r="C22">
-        <v>2.90872640621069</v>
+        <v>2.863309111864453</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.4530942139852385</v>
+        <v>0.4506396114182536</v>
       </c>
       <c r="F22">
         <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0006897260314269262</v>
       </c>
       <c r="H22">
-        <v>5.001896351902843</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>4.977715527925142</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.17794997627901</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>1.16698684561689</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.008782195394588</v>
+        <v>6.921961812945085</v>
       </c>
       <c r="C23">
-        <v>2.771933186857325</v>
+        <v>2.728877016763818</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.4316174543463234</v>
+        <v>0.4293283386173954</v>
       </c>
       <c r="F23">
         <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.000696001678509553</v>
       </c>
       <c r="H23">
-        <v>4.780496072423261</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>4.759830082322054</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.122218799467078</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>1.111927297558879</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.797479168301436</v>
+        <v>5.727642198022977</v>
       </c>
       <c r="C24">
-        <v>2.282807627814691</v>
+        <v>2.247953131852398</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.3550446249844512</v>
+        <v>0.3532796460532666</v>
       </c>
       <c r="F24">
         <v>2.170038921573038</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007192834618738272</v>
       </c>
       <c r="H24">
-        <v>3.995750450541436</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.987102754634265</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.9232581180838793</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.9152274584395741</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.590058431739351</v>
+        <v>4.536510790524801</v>
       </c>
       <c r="C25">
-        <v>1.79897097285658</v>
+        <v>1.771983617874071</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2796834171687763</v>
+        <v>0.2783429018594461</v>
       </c>
       <c r="F25">
         <v>1.757113814925404</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007439004088561524</v>
       </c>
       <c r="H25">
-        <v>3.232240722976428</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.234792585228078</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.726996360537683</v>
+        <v>0</v>
       </c>
       <c r="L25">
+        <v>0.7210228745676233</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_57/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_57/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.713757138263986</v>
+        <v>4.37180439519193</v>
       </c>
       <c r="C2">
-        <v>1.445363779722186</v>
+        <v>1.246665720208796</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2271438405408333</v>
+        <v>1.465578657604752</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.0007620048091411496</v>
+        <v>0.0007580318481798103</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.727592783174273</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.276701954227761</v>
       </c>
       <c r="L2">
-        <v>0.5880758164497379</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>1.456364907294045</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.179266481664456</v>
+        <v>3.738915235208935</v>
       </c>
       <c r="C3">
-        <v>1.23412290184973</v>
+        <v>1.061703652540302</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1941474664019083</v>
+        <v>1.2421568048822</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.0007744114968546342</v>
+        <v>0.0007706407013869011</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.404424512314193</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.090330568224658</v>
       </c>
       <c r="L3">
-        <v>0.5022590889923819</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>1.418182483805353</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.85966742693023</v>
+        <v>3.36244955253153</v>
       </c>
       <c r="C4">
-        <v>1.108165527720303</v>
+        <v>0.9518679397292544</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1745235081146674</v>
+        <v>1.110358993118041</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.0007821364934172272</v>
+        <v>0.0007784631857470537</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.213875840956362</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.9795180971957507</v>
       </c>
       <c r="L4">
-        <v>0.4511616347703367</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>1.398314318999496</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.731228267146093</v>
+        <v>3.211578536742763</v>
       </c>
       <c r="C5">
-        <v>1.057620584711231</v>
+        <v>0.9078832532999854</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1666606193075495</v>
+        <v>1.057757593896213</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.0007853165187456536</v>
+        <v>0.0007816773832374813</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.137915904196049</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.9351175551276754</v>
       </c>
       <c r="L5">
-        <v>0.4306740046440751</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>1.391007256970397</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.710000183911802</v>
+        <v>3.186666515644959</v>
       </c>
       <c r="C6">
-        <v>1.049270733862443</v>
+        <v>0.9006220426509515</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.165362394556702</v>
+        <v>1.049083566333849</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.000785846630014381</v>
+        <v>0.0007822128621030719</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.125397069578284</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.9277864770571256</v>
       </c>
       <c r="L6">
-        <v>0.4272905162740486</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>1.3898386793757</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.85792840192488</v>
+        <v>3.360405181708927</v>
       </c>
       <c r="C7">
-        <v>1.107480881767742</v>
+        <v>0.951271811512953</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1744169555118447</v>
+        <v>1.109645406685857</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>1.139311062524627</v>
       </c>
       <c r="G7">
-        <v>0.0007821792444897597</v>
+        <v>0.000778506418810846</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.212844933491297</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.9789164207022623</v>
       </c>
       <c r="L7">
-        <v>0.4508840559342104</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>1.398212711220225</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.52745303721008</v>
+        <v>4.150736077051249</v>
       </c>
       <c r="C8">
-        <v>1.371648509534452</v>
+        <v>1.182009408047236</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2156179906649598</v>
+        <v>1.387263704561619</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.0007662636352029735</v>
+        <v>0.0007623666841494012</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.614342275621212</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.211589651303726</v>
       </c>
       <c r="L8">
-        <v>0.5581127426822832</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>1.442386104140198</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.927650177915041</v>
+        <v>5.824592211709898</v>
       </c>
       <c r="C9">
-        <v>1.927875866768204</v>
+        <v>1.67311147515511</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.3028470984033476</v>
+        <v>1.988183465282901</v>
       </c>
       <c r="F9">
         <v>1.895061171845313</v>
       </c>
       <c r="G9">
-        <v>0.0007356345621393689</v>
+        <v>0.0007310171203141356</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3.479630560041585</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.705004750948319</v>
       </c>
       <c r="L9">
-        <v>0.7845734422861952</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>1.563367036770671</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.042482925591344</v>
+        <v>7.178969717535892</v>
       </c>
       <c r="C10">
-        <v>2.374374480396341</v>
+        <v>2.073509669185341</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.3732404741489077</v>
+        <v>2.489249917348175</v>
       </c>
       <c r="F10">
-        <v>2.275587181990957</v>
+        <v>2.275587181990971</v>
       </c>
       <c r="G10">
-        <v>0.0007130265191804639</v>
+        <v>0.0007075677717436399</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>4.189127636659464</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>2.105046470984277</v>
       </c>
       <c r="L10">
-        <v>0.9668911727626437</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>1.68373836619125</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.578091996863691</v>
+        <v>7.837351854682197</v>
       </c>
       <c r="C11">
-        <v>2.590031268880921</v>
+        <v>2.269283814301673</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.4073411946412904</v>
+        <v>2.738272545164492</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.0007025837500096502</v>
+        <v>0.0006966225676608308</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>4.535609313061912</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>2.299813923949273</v>
       </c>
       <c r="L11">
-        <v>1.055094009573892</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>1.748604214454872</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.786078811702453</v>
+        <v>8.094496655861008</v>
       </c>
       <c r="C12">
-        <v>2.673974451908975</v>
+        <v>2.345964870214175</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.4206312182010521</v>
+        <v>2.83658084735174</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.0006985918044705723</v>
+        <v>0.000692416202101011</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>4.671066086386077</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>2.375942194322391</v>
       </c>
       <c r="L12">
-        <v>1.089450018532048</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>1.774998934344268</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.741035442297118</v>
+        <v>8.038733834208756</v>
       </c>
       <c r="C13">
-        <v>2.655785529901209</v>
+        <v>2.329325640043862</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.4177507516839682</v>
+        <v>2.815210809837723</v>
       </c>
       <c r="F13">
-        <v>2.504295469236098</v>
+        <v>2.504295469238414</v>
       </c>
       <c r="G13">
-        <v>0.0006994534846464455</v>
+        <v>0.000693325281005336</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>4.64168827114645</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>2.359430658452268</v>
       </c>
       <c r="L13">
-        <v>1.082004619210537</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>1.76922560336925</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.595092598148199</v>
+        <v>7.858338403257278</v>
       </c>
       <c r="C14">
-        <v>2.596888493315191</v>
+        <v>2.275537366396065</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.4084265014201307</v>
+        <v>2.746273266589441</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>2.457142640142266</v>
       </c>
       <c r="G14">
-        <v>0.0007022561796255199</v>
+        <v>0.0006962778919801238</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>4.546662643702803</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>2.306025793469772</v>
       </c>
       <c r="L14">
-        <v>1.057900027950353</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>1.750736433490175</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.506407239754026</v>
+        <v>7.748921854922173</v>
       </c>
       <c r="C15">
-        <v>2.561125297568537</v>
+        <v>2.242942555433217</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.4027668600322372</v>
+        <v>2.704603844014358</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>2.428326063136552</v>
       </c>
       <c r="G15">
-        <v>0.0007039675269508433</v>
+        <v>0.000698077662375729</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>4.489038909399795</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>2.27364167215633</v>
       </c>
       <c r="L15">
-        <v>1.043266466971019</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>1.739662988787614</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.008137904896955</v>
+        <v>7.136931538912165</v>
       </c>
       <c r="C16">
-        <v>2.360571123337309</v>
+        <v>2.061035711630154</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.3710599584562075</v>
+        <v>2.473476246053892</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0.0007137046159271204</v>
+        <v>0.0007082757668807097</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>4.167028899085864</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>2.092617435364232</v>
       </c>
       <c r="L16">
-        <v>0.9612487030298382</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>1.679732427320943</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.710438010679525</v>
+        <v>6.773413162596228</v>
       </c>
       <c r="C17">
-        <v>2.241052326104978</v>
+        <v>1.9532965667334</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.3521907199317056</v>
+        <v>2.33768656775483</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.0007196280729754817</v>
+        <v>0.0007144473021462217</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>3.976099574583969</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.985173202882336</v>
       </c>
       <c r="L17">
-        <v>0.912408284159028</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>1.645791514060619</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.541810972970893</v>
+        <v>6.568176010913362</v>
       </c>
       <c r="C18">
-        <v>2.173454465149973</v>
+        <v>1.892567374806163</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.3415276251696611</v>
+        <v>2.261495010203333</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.0007230212554516446</v>
+        <v>0.0007179724500208096</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>3.868455022355704</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.92453799449666</v>
       </c>
       <c r="L18">
-        <v>0.8847978446264619</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>1.627193096111</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.485135228776471</v>
+        <v>6.499301999297529</v>
       </c>
       <c r="C19">
-        <v>2.150751237308043</v>
+        <v>1.872203327435727</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.3379478471628019</v>
+        <v>2.236001321899622</v>
       </c>
       <c r="F19">
-        <v>2.087706772602971</v>
+        <v>2.087706772602957</v>
       </c>
       <c r="G19">
-        <v>0.0007241681452271783</v>
+        <v>0.0007191623457038478</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>3.832359245191157</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.904194020461688</v>
       </c>
       <c r="L19">
-        <v>0.8755268197593011</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>1.621044826672801</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.741852454920434</v>
+        <v>6.811700897607409</v>
       </c>
       <c r="C20">
-        <v>2.253653612591506</v>
+        <v>1.964633615350408</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.3541792160278945</v>
+        <v>2.351937758446155</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.0007189990379279049</v>
+        <v>0.0007137930094907211</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>3.996193995290952</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.996486991856273</v>
       </c>
       <c r="L20">
-        <v>0.9175563394934869</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>1.64930661746584</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.637809510673435</v>
+        <v>7.911095730031832</v>
       </c>
       <c r="C21">
-        <v>2.614121734807782</v>
+        <v>2.291261594512775</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.4111543100290902</v>
+        <v>2.766403604561901</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>2.470978708896936</v>
       </c>
       <c r="G21">
-        <v>0.0007014341139932487</v>
+        <v>0.0006954125192502259</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>4.57445083289636</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>2.321642558316228</v>
       </c>
       <c r="L21">
-        <v>1.064952359445954</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>1.756113847259911</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.254181367317074</v>
+        <v>8.676509295302594</v>
       </c>
       <c r="C22">
-        <v>2.863309111864453</v>
+        <v>2.519994684740254</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.4506396114182536</v>
+        <v>3.061381777564748</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.0006897260314269262</v>
+        <v>0.0006830247306978797</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>4.977715527925142</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>2.548373946960282</v>
       </c>
       <c r="L22">
-        <v>1.16698684561689</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>1.836864690340263</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.921961812945085</v>
+        <v>8.26296847188928</v>
       </c>
       <c r="C23">
-        <v>2.728877016763818</v>
+        <v>2.396271977826416</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.4293283386173954</v>
+        <v>2.901320434411687</v>
       </c>
       <c r="F23">
         <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.000696001678509553</v>
+        <v>0.0006896797826373677</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>4.759830082322054</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>2.425836851904606</v>
       </c>
       <c r="L23">
-        <v>1.111927297558879</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>1.792606514475608</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.727642198022977</v>
+        <v>6.794379442791296</v>
       </c>
       <c r="C24">
-        <v>2.247953131852398</v>
+        <v>1.959504403660048</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.3532796460532666</v>
+        <v>2.34548902134739</v>
       </c>
       <c r="F24">
         <v>2.170038921573038</v>
       </c>
       <c r="G24">
-        <v>0.0007192834618738272</v>
+        <v>0.0007140888851113686</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>3.987102754634265</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.99136852772547</v>
       </c>
       <c r="L24">
-        <v>0.9152274584395741</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>1.647714617060387</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.536510790524801</v>
+        <v>5.354092176927963</v>
       </c>
       <c r="C25">
-        <v>1.771983617874071</v>
+        <v>1.534686384463669</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2783429018594461</v>
+        <v>1.817354252699772</v>
       </c>
       <c r="F25">
         <v>1.757113814925404</v>
       </c>
       <c r="G25">
-        <v>0.0007439004088561524</v>
+        <v>0.0007395196400850323</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>3.234792585228078</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.566211090104161</v>
       </c>
       <c r="L25">
-        <v>0.7210228745676233</v>
+        <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>1.526013682267944</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_57/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_57/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.37180439519193</v>
+        <v>6.819349775725584</v>
       </c>
       <c r="C2">
-        <v>1.246665720208796</v>
+        <v>2.20029046677206</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.465578657604752</v>
+        <v>1.537707027434976</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.0007580318481798103</v>
+        <v>0.0007276089254945903</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.276701954227761</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.456364907294045</v>
+        <v>1.344269324948812</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.738915235208935</v>
+        <v>5.793867033069318</v>
       </c>
       <c r="C3">
-        <v>1.061703652540302</v>
+        <v>1.863513221551784</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.2421568048822</v>
+        <v>1.294815725449808</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.0007706407013869011</v>
+        <v>0.0007434048735865382</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.090330568224658</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.418182483805353</v>
+        <v>1.297288951667952</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.36244955253153</v>
+        <v>5.189433218214219</v>
       </c>
       <c r="C4">
-        <v>0.9518679397292544</v>
+        <v>1.665392678265903</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.110358993118041</v>
+        <v>1.153156825785231</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.0007784631857470537</v>
+        <v>0.0007531231735842091</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.9795180971957507</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.398314318999496</v>
+        <v>1.273018365312765</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.211578536742763</v>
+        <v>4.948284929538715</v>
       </c>
       <c r="C5">
-        <v>0.9078832532999854</v>
+        <v>1.586417200968015</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.057757593896213</v>
+        <v>1.096935365035591</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.0007816773832374813</v>
+        <v>0.0007570998950129327</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.9351175551276754</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.391007256970397</v>
+        <v>1.264109443365427</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.186666515644959</v>
+        <v>4.908523771006514</v>
       </c>
       <c r="C6">
-        <v>0.9006220426509515</v>
+        <v>1.573398896939636</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.049083566333849</v>
+        <v>1.08768118726843</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.0007822128621030719</v>
+        <v>0.0007577615178495224</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.9277864770571256</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.3898386793757</v>
+        <v>1.262685020970054</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.360405181708927</v>
+        <v>5.186161506554924</v>
       </c>
       <c r="C7">
-        <v>0.951271811512953</v>
+        <v>1.664320957485927</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.109645406685857</v>
+        <v>1.152392949057329</v>
       </c>
       <c r="F7">
-        <v>1.139311062524627</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.000778506418810846</v>
+        <v>0.0007531767247942778</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.9789164207022623</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.398212711220225</v>
+        <v>1.272894444045207</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.150736077051249</v>
+        <v>6.459748829916123</v>
       </c>
       <c r="C8">
-        <v>1.182009408047236</v>
+        <v>2.082094162177896</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.387263704561619</v>
+        <v>1.452155388505375</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.0007623666841494012</v>
+        <v>0.0007330589632885715</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.211589651303726</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.442386104140198</v>
+        <v>1.327008859774494</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.824592211709898</v>
+        <v>9.22555712416704</v>
       </c>
       <c r="C9">
-        <v>1.67311147515511</v>
+        <v>2.994437373045571</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.988183465282901</v>
+        <v>2.121627054627908</v>
       </c>
       <c r="F9">
         <v>1.895061171845313</v>
       </c>
       <c r="G9">
-        <v>0.0007310171203141356</v>
+        <v>0.0006930935685092942</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.705004750948319</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.563367036770671</v>
+        <v>1.479200605520617</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.178969717535892</v>
+        <v>11.55297188948748</v>
       </c>
       <c r="C10">
-        <v>2.073509669185341</v>
+        <v>3.768940704481849</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.489249917348175</v>
+        <v>2.708023037344972</v>
       </c>
       <c r="F10">
-        <v>2.275587181990971</v>
+        <v>2.275587181990957</v>
       </c>
       <c r="G10">
-        <v>0.0007075677717436399</v>
+        <v>0.0006621176190563485</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.105046470984277</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.68373836619125</v>
+        <v>1.637939705774556</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.837351854682197</v>
+        <v>12.72308242618942</v>
       </c>
       <c r="C11">
-        <v>2.269283814301673</v>
+        <v>4.161075432944983</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.738272545164492</v>
+        <v>3.012178469015865</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.0006966225676608308</v>
+        <v>0.0006472066234492164</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.299813923949273</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.748604214454872</v>
+        <v>1.72707553966427</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.094496655861008</v>
+        <v>13.18852041652065</v>
       </c>
       <c r="C12">
-        <v>2.345964870214175</v>
+        <v>4.317617017534474</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2.83658084735174</v>
+        <v>3.135099412885097</v>
       </c>
       <c r="F12">
-        <v>2.518780942186368</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.000692416202101011</v>
+        <v>0.0006413788377490642</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.375942194322391</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.774998934344268</v>
+        <v>1.764165996603339</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.038733834208756</v>
+        <v>13.08715134311217</v>
       </c>
       <c r="C13">
-        <v>2.329325640043862</v>
+        <v>4.28349521540423</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2.815210809837723</v>
+        <v>3.108230049203655</v>
       </c>
       <c r="F13">
-        <v>2.504295469238414</v>
+        <v>2.504295469238428</v>
       </c>
       <c r="G13">
-        <v>0.000693325281005336</v>
+        <v>0.0006426433792087229</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.359430658452268</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.76922560336925</v>
+        <v>1.756010269208787</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.858338403257278</v>
+        <v>12.76087916074493</v>
       </c>
       <c r="C14">
-        <v>2.275537366396065</v>
+        <v>4.173775432463003</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2.746273266589441</v>
+        <v>3.022117945760854</v>
       </c>
       <c r="F14">
-        <v>2.457142640142266</v>
+        <v>2.457142640142237</v>
       </c>
       <c r="G14">
-        <v>0.0006962778919801238</v>
+        <v>0.0006467312784886951</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.306025793469772</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.750736433490175</v>
+        <v>1.730053374068746</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.748921854922173</v>
+        <v>12.56417724376399</v>
       </c>
       <c r="C15">
-        <v>2.242942555433217</v>
+        <v>4.107705386866996</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2.704603844014358</v>
+        <v>2.970471671707685</v>
       </c>
       <c r="F15">
-        <v>2.428326063136552</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.000698077662375729</v>
+        <v>0.0006492092118019284</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.27364167215633</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.739662988787614</v>
+        <v>1.714622701051979</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.136931538912165</v>
+        <v>11.47922066055912</v>
       </c>
       <c r="C16">
-        <v>2.061035711630154</v>
+        <v>3.74428974729534</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2.473476246053892</v>
+        <v>2.689074652227148</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0.0007082757668807097</v>
+        <v>0.0006630708176136313</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.092617435364232</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.679732427320943</v>
+        <v>1.632523179023536</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.773413162596228</v>
+        <v>10.84583379197511</v>
       </c>
       <c r="C17">
-        <v>1.9532965667334</v>
+        <v>3.532887339661556</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.33768656775483</v>
+        <v>2.527373604877894</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.0007144473021462217</v>
+        <v>0.0006713277728158199</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.985173202882336</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.645791514060619</v>
+        <v>1.587017602303661</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.568176010913362</v>
+        <v>10.4915106282881</v>
       </c>
       <c r="C18">
-        <v>1.892567374806163</v>
+        <v>3.414858100280469</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.261495010203333</v>
+        <v>2.437699029772091</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.0007179724500208096</v>
+        <v>0.000676004781933562</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.92453799449666</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.627193096111</v>
+        <v>1.56236612143698</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.499301999297529</v>
+        <v>10.37310792525648</v>
       </c>
       <c r="C19">
-        <v>1.872203327435727</v>
+        <v>3.375452794269847</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2.236001321899622</v>
+        <v>2.407854386151513</v>
       </c>
       <c r="F19">
-        <v>2.087706772602957</v>
+        <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0.0007191623457038478</v>
+        <v>0.00067757743396547</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.904194020461688</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.621044826672801</v>
+        <v>1.554259593206069</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.811700897607409</v>
+        <v>10.91218857334889</v>
       </c>
       <c r="C20">
-        <v>1.964633615350408</v>
+        <v>3.555009112261416</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.351937758446155</v>
+        <v>2.544228616817065</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.0007137930094907211</v>
+        <v>0.0006704566445705248</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.996486991856273</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.64930661746584</v>
+        <v>1.591698931197897</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.911095730031832</v>
+        <v>12.85604092739015</v>
       </c>
       <c r="C21">
-        <v>2.291261594512775</v>
+        <v>4.205760044695069</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.766403604561901</v>
+        <v>3.04717578959017</v>
       </c>
       <c r="F21">
-        <v>2.470978708896936</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.0006954125192502259</v>
+        <v>0.0006455361477019758</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.321642558316228</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.756113847259911</v>
+        <v>1.737577594072263</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.676509295302594</v>
+        <v>14.2623370788582</v>
       </c>
       <c r="C22">
-        <v>2.519994684740254</v>
+        <v>4.680071231060651</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>3.061381777564748</v>
+        <v>3.423240717759199</v>
       </c>
       <c r="F22">
-        <v>2.667416158031969</v>
+        <v>2.667416158031955</v>
       </c>
       <c r="G22">
-        <v>0.0006830247306978797</v>
+        <v>0.0006281351157782303</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.548373946960282</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.836864690340263</v>
+        <v>1.853169987919358</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.26296847188928</v>
+        <v>13.49631536139952</v>
       </c>
       <c r="C23">
-        <v>2.396271977826416</v>
+        <v>4.42132154556549</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.901320434411687</v>
+        <v>3.217027297548881</v>
       </c>
       <c r="F23">
         <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.0006896797826373677</v>
+        <v>0.00063755479919077</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.425836851904606</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.792606514475608</v>
+        <v>1.789192544081374</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.794379442791296</v>
+        <v>10.88215942114357</v>
       </c>
       <c r="C24">
-        <v>1.959504403660048</v>
+        <v>3.544997087074364</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.34548902134739</v>
+        <v>2.536598378434164</v>
       </c>
       <c r="F24">
-        <v>2.170038921573038</v>
+        <v>2.170038921573024</v>
       </c>
       <c r="G24">
-        <v>0.0007140888851113686</v>
+        <v>0.0006708506954785521</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.99136852772547</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.647714617060387</v>
+        <v>1.589577859538139</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.354092176927963</v>
+        <v>8.437408398522223</v>
       </c>
       <c r="C25">
-        <v>1.534686384463669</v>
+        <v>2.733645462362404</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.817354252699772</v>
+        <v>1.928058455383209</v>
       </c>
       <c r="F25">
         <v>1.757113814925404</v>
       </c>
       <c r="G25">
-        <v>0.0007395196400850323</v>
+        <v>0.0007040704477956643</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.566211090104161</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.526013682267944</v>
+        <v>1.431494894968466</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_57/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_57/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.819349775725584</v>
+        <v>2.242910268107096</v>
       </c>
       <c r="C2">
-        <v>2.20029046677206</v>
+        <v>0.6311885399363177</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.537707027434976</v>
+        <v>0.4158060904646845</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746121</v>
       </c>
       <c r="G2">
-        <v>0.0007276089254945903</v>
+        <v>0.00242407716902464</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.344269324948812</v>
+        <v>1.47328817965743</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.793867033069318</v>
+        <v>2.007184378090869</v>
       </c>
       <c r="C3">
-        <v>1.863513221551784</v>
+        <v>0.5525089403576544</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.294815725449808</v>
+        <v>0.362019698825975</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.3878228170618172</v>
       </c>
       <c r="G3">
-        <v>0.0007434048735865382</v>
+        <v>0.002432169680867075</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.297288951667952</v>
+        <v>1.462113483797097</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.189433218214219</v>
+        <v>1.863824805689944</v>
       </c>
       <c r="C4">
-        <v>1.665392678265903</v>
+        <v>0.5044814892216323</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.153156825785231</v>
+        <v>0.3291912763668421</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305169483</v>
       </c>
       <c r="G4">
-        <v>0.0007531231735842091</v>
+        <v>0.00243737669552322</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.273018365312765</v>
+        <v>1.455779937646582</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.948284929538715</v>
+        <v>1.80573637306469</v>
       </c>
       <c r="C5">
-        <v>1.586417200968015</v>
+        <v>0.4849755974774439</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.096935365035591</v>
+        <v>0.3158581801401539</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514326325</v>
       </c>
       <c r="G5">
-        <v>0.0007570998950129327</v>
+        <v>0.002439558792655624</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.264109443365427</v>
+        <v>1.453328841223126</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4.908523771006514</v>
+        <v>1.796110452037283</v>
       </c>
       <c r="C6">
-        <v>1.573398896939636</v>
+        <v>0.4817404744861733</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.08768118726843</v>
+        <v>0.3136467972641412</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.3366681778241372</v>
       </c>
       <c r="G6">
-        <v>0.0007577615178495224</v>
+        <v>0.002439924772921491</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.262685020970054</v>
+        <v>1.452929600530609</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.186161506554924</v>
+        <v>1.863040080462895</v>
       </c>
       <c r="C7">
-        <v>1.664320957485927</v>
+        <v>0.504218166867247</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.152392949057329</v>
+        <v>0.3290112865013697</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938368969</v>
       </c>
       <c r="G7">
-        <v>0.0007531767247942778</v>
+        <v>0.002437405880020995</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.272894444045207</v>
+        <v>1.455746359158738</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.459748829916123</v>
+        <v>2.161337265704276</v>
       </c>
       <c r="C8">
-        <v>2.082094162177896</v>
+        <v>0.6039980335335713</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.452155388505375</v>
+        <v>0.3972168606075144</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813336</v>
       </c>
       <c r="G8">
-        <v>0.0007330589632885715</v>
+        <v>0.00242681821776923</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.327008859774494</v>
+        <v>1.469323884945325</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.22555712416704</v>
+        <v>2.757920240944884</v>
       </c>
       <c r="C9">
-        <v>2.994437373045571</v>
+        <v>0.8021555606492257</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>2.121627054627908</v>
+        <v>0.5327497143518514</v>
       </c>
       <c r="F9">
-        <v>1.895061171845313</v>
+        <v>0.5661985755042025</v>
       </c>
       <c r="G9">
-        <v>0.0006930935685092942</v>
+        <v>0.002407931669278663</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.479200605520617</v>
+        <v>1.500268038415214</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.55297188948748</v>
+        <v>3.204341786139707</v>
       </c>
       <c r="C10">
-        <v>3.768940704481849</v>
+        <v>0.9496269551769956</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.708023037344972</v>
+        <v>0.6337339265794242</v>
       </c>
       <c r="F10">
-        <v>2.275587181990957</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.0006621176190563485</v>
+        <v>0.002395179452167902</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.637939705774556</v>
+        <v>1.52582192964627</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.72308242618942</v>
+        <v>3.409423874693289</v>
       </c>
       <c r="C11">
-        <v>4.161075432944983</v>
+        <v>1.017207688569499</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>3.012178469015865</v>
+        <v>0.6800526058525094</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.0006472066234492164</v>
+        <v>0.002389617830170714</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.72707553966427</v>
+        <v>1.538100673397508</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.18852041652065</v>
+        <v>3.48738982487464</v>
       </c>
       <c r="C12">
-        <v>4.317617017534474</v>
+        <v>1.042876692757204</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>3.135099412885097</v>
+        <v>0.6976529604841772</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913087669</v>
       </c>
       <c r="G12">
-        <v>0.0006413788377490642</v>
+        <v>0.002387545876413383</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.764165996603339</v>
+        <v>1.542847813480705</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.08715134311217</v>
+        <v>3.470584571606537</v>
       </c>
       <c r="C13">
-        <v>4.28349521540423</v>
+        <v>1.037344855597951</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>3.108230049203655</v>
+        <v>0.6938596257631389</v>
       </c>
       <c r="F13">
-        <v>2.504295469238428</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.0006426433792087229</v>
+        <v>0.002387990596671201</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.756010269208787</v>
+        <v>1.541821043315906</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.76087916074493</v>
+        <v>3.415831947287302</v>
       </c>
       <c r="C14">
-        <v>4.173775432463003</v>
+        <v>1.019317899299381</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>3.022117945760854</v>
+        <v>0.6814993519042361</v>
       </c>
       <c r="F14">
-        <v>2.457142640142237</v>
+        <v>0.7191683204515442</v>
       </c>
       <c r="G14">
-        <v>0.0006467312784886951</v>
+        <v>0.002389446687452271</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.730053374068746</v>
+        <v>1.538489250867599</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.56417724376399</v>
+        <v>3.382334748440485</v>
       </c>
       <c r="C15">
-        <v>4.107705386866996</v>
+        <v>1.008286174138732</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2.970471671707685</v>
+        <v>0.6739363772747566</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>0.7114413442032657</v>
       </c>
       <c r="G15">
-        <v>0.0006492092118019284</v>
+        <v>0.002390343017841352</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.714622701051979</v>
+        <v>1.536461223817298</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.47922066055912</v>
+        <v>3.190981000404236</v>
       </c>
       <c r="C16">
-        <v>3.74428974729534</v>
+        <v>0.9452209064223211</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2.689074652227148</v>
+        <v>0.6307150366178007</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.0006630708176136313</v>
+        <v>0.002395547707982758</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.632523179023536</v>
+        <v>1.525032935238301</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.84583379197511</v>
+        <v>3.074117127045156</v>
       </c>
       <c r="C17">
-        <v>3.532887339661556</v>
+        <v>0.9066637692233712</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.527373604877894</v>
+        <v>0.6043016352017929</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337216174</v>
       </c>
       <c r="G17">
-        <v>0.0006713277728158199</v>
+        <v>0.00239880171493173</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.587017602303661</v>
+        <v>1.518191974814272</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.4915106282881</v>
+        <v>3.007087521757057</v>
       </c>
       <c r="C18">
-        <v>3.414858100280469</v>
+        <v>0.8845329435203553</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.437699029772091</v>
+        <v>0.5891447999221668</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056557215</v>
       </c>
       <c r="G18">
-        <v>0.000676004781933562</v>
+        <v>0.002400695888542229</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.56236612143698</v>
+        <v>1.514318600326305</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.37310792525648</v>
+        <v>2.984424101454351</v>
       </c>
       <c r="C19">
-        <v>3.375452794269847</v>
+        <v>0.8770475717351474</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2.407854386151513</v>
+        <v>0.5840188725112654</v>
       </c>
       <c r="F19">
-        <v>2.087706772602971</v>
+        <v>0.6191636801734006</v>
       </c>
       <c r="G19">
-        <v>0.00067757743396547</v>
+        <v>0.002401341106540452</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.554259593206069</v>
+        <v>1.513017579999911</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.91218857334889</v>
+        <v>3.086537962853072</v>
       </c>
       <c r="C20">
-        <v>3.555009112261416</v>
+        <v>0.9107634127544202</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.544228616817065</v>
+        <v>0.6071096762427715</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.6429339538360921</v>
       </c>
       <c r="G20">
-        <v>0.0006704566445705248</v>
+        <v>0.002398452988234602</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.591698931197897</v>
+        <v>1.518913831448344</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.85604092739015</v>
+        <v>3.431905675771077</v>
       </c>
       <c r="C21">
-        <v>4.205760044695069</v>
+        <v>1.024610693828947</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>3.04717578959017</v>
+        <v>0.6851281758088277</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723492197</v>
       </c>
       <c r="G21">
-        <v>0.0006455361477019758</v>
+        <v>0.002389018075002979</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.737577594072263</v>
+        <v>1.539465207076148</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.2623370788582</v>
+        <v>3.659414627157389</v>
       </c>
       <c r="C22">
-        <v>4.680071231060651</v>
+        <v>1.099472183521755</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>3.423240717759199</v>
+        <v>0.7364730819928269</v>
       </c>
       <c r="F22">
-        <v>2.667416158031955</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.0006281351157782303</v>
+        <v>0.002383050494854145</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.853169987919358</v>
+        <v>1.553466335860037</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.49631536139952</v>
+        <v>3.537818890525841</v>
       </c>
       <c r="C23">
-        <v>4.42132154556549</v>
+        <v>1.059473324968621</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>3.217027297548881</v>
+        <v>0.7090348760984426</v>
       </c>
       <c r="F23">
-        <v>2.562285531758789</v>
+        <v>0.7472568307916134</v>
       </c>
       <c r="G23">
-        <v>0.00063755479919077</v>
+        <v>0.002386217430972703</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.789192544081374</v>
+        <v>1.5459404125898</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.88215942114357</v>
+        <v>3.080922015330543</v>
       </c>
       <c r="C24">
-        <v>3.544997087074364</v>
+        <v>0.9089098516876106</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.536598378434164</v>
+        <v>0.6058400722986477</v>
       </c>
       <c r="F24">
-        <v>2.170038921573024</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.0006708506954785521</v>
+        <v>0.002398610574551041</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.589577859538139</v>
+        <v>1.518587294725734</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.437408398522223</v>
+        <v>2.595180027534525</v>
       </c>
       <c r="C25">
-        <v>2.733645462362404</v>
+        <v>0.7482448054573752</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.928058455383209</v>
+        <v>0.4958609936548584</v>
       </c>
       <c r="F25">
-        <v>1.757113814925404</v>
+        <v>0.5279251897347308</v>
       </c>
       <c r="G25">
-        <v>0.0007040704477956643</v>
+        <v>0.00241284220073668</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.431494894968466</v>
+        <v>1.49141544874891</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_57/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_57/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.242910268107096</v>
+        <v>6.819349775725811</v>
       </c>
       <c r="C2">
-        <v>0.6311885399363177</v>
+        <v>2.200290466772401</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.4158060904646845</v>
+        <v>1.537707027434948</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746121</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.00242407716902464</v>
+        <v>0.000727608925439107</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.47328817965743</v>
+        <v>1.344269324948868</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.007184378090869</v>
+        <v>5.793867033069375</v>
       </c>
       <c r="C3">
-        <v>0.5525089403576544</v>
+        <v>1.863513221551614</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.362019698825975</v>
+        <v>1.294815725449823</v>
       </c>
       <c r="F3">
-        <v>0.3878228170618172</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.002432169680867075</v>
+        <v>0.0007434048735841809</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.462113483797097</v>
+        <v>1.297288951667937</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.863824805689944</v>
+        <v>5.189433218214276</v>
       </c>
       <c r="C4">
-        <v>0.5044814892216323</v>
+        <v>1.665392678265619</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.3291912763668421</v>
+        <v>1.153156825785203</v>
       </c>
       <c r="F4">
-        <v>0.3531389305169483</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.00243737669552322</v>
+        <v>0.0007531231735833756</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.455779937646582</v>
+        <v>1.27301836531278</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.80573637306469</v>
+        <v>4.948284929538602</v>
       </c>
       <c r="C5">
-        <v>0.4849755974774439</v>
+        <v>1.586417200967787</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.3158581801401539</v>
+        <v>1.096935365035577</v>
       </c>
       <c r="F5">
-        <v>0.3390132514326325</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.002439558792655624</v>
+        <v>0.0007570998951364512</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.453328841223126</v>
+        <v>1.264109443365399</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.796110452037283</v>
+        <v>4.908523771006401</v>
       </c>
       <c r="C6">
-        <v>0.4817404744861733</v>
+        <v>1.573398896939921</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3136467972641412</v>
+        <v>1.087681187268416</v>
       </c>
       <c r="F6">
-        <v>0.3366681778241372</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.002439924772921491</v>
+        <v>0.000757761517849741</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.452929600530609</v>
+        <v>1.262685020970039</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.863040080462895</v>
+        <v>5.186161506554868</v>
       </c>
       <c r="C7">
-        <v>0.504218166867247</v>
+        <v>1.664320957485131</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.3290112865013697</v>
+        <v>1.152392949057329</v>
       </c>
       <c r="F7">
-        <v>0.3529483938368969</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.002437405880020995</v>
+        <v>0.0007531767247371943</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.455746359158738</v>
+        <v>1.272894444045107</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.161337265704276</v>
+        <v>6.459748829915895</v>
       </c>
       <c r="C8">
-        <v>0.6039980335335713</v>
+        <v>2.082094162177839</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.3972168606075144</v>
+        <v>1.452155388505389</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813336</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.00242681821776923</v>
+        <v>0.0007330589633447588</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.469323884945325</v>
+        <v>1.327008859774509</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.757920240944884</v>
+        <v>9.225557124167096</v>
       </c>
       <c r="C9">
-        <v>0.8021555606492257</v>
+        <v>2.994437373045741</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.5327497143518514</v>
+        <v>2.121627054627879</v>
       </c>
       <c r="F9">
-        <v>0.5661985755042025</v>
+        <v>1.895061171845327</v>
       </c>
       <c r="G9">
-        <v>0.002407931669278663</v>
+        <v>0.0006930935685051143</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.500268038415214</v>
+        <v>1.479200605520646</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.204341786139707</v>
+        <v>11.55297188948748</v>
       </c>
       <c r="C10">
-        <v>0.9496269551769956</v>
+        <v>3.768940704481054</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.6337339265794242</v>
+        <v>2.708023037345015</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990957</v>
       </c>
       <c r="G10">
-        <v>0.002395179452167902</v>
+        <v>0.0006621176190054509</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.52582192964627</v>
+        <v>1.637939705774556</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.409423874693289</v>
+        <v>12.72308242618931</v>
       </c>
       <c r="C11">
-        <v>1.017207688569499</v>
+        <v>4.161075432945722</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.6800526058525094</v>
+        <v>3.012178469015893</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.002389617830170714</v>
+        <v>0.0006472066235008178</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.538100673397508</v>
+        <v>1.72707553966427</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.48738982487464</v>
+        <v>13.18852041652076</v>
       </c>
       <c r="C12">
-        <v>1.042876692757204</v>
+        <v>4.317617017534474</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.6976529604841772</v>
+        <v>3.135099412885054</v>
       </c>
       <c r="F12">
-        <v>0.7356546913087669</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.002387545876413383</v>
+        <v>0.0006413788377011026</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.542847813480705</v>
+        <v>1.76416599660331</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.470584571606537</v>
+        <v>13.08715134311205</v>
       </c>
       <c r="C13">
-        <v>1.037344855597951</v>
+        <v>4.283495215404059</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.6938596257631389</v>
+        <v>3.108230049203684</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469238414</v>
       </c>
       <c r="G13">
-        <v>0.002387990596671201</v>
+        <v>0.0006426433791618141</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.541821043315906</v>
+        <v>1.756010269208815</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.415831947287302</v>
+        <v>12.76087916074539</v>
       </c>
       <c r="C14">
-        <v>1.019317899299381</v>
+        <v>4.173775432464311</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.6814993519042361</v>
+        <v>3.02211794576094</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515442</v>
+        <v>2.457142640142266</v>
       </c>
       <c r="G14">
-        <v>0.002389446687452271</v>
+        <v>0.0006467312783820703</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.538489250867599</v>
+        <v>1.730053374068746</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.382334748440485</v>
+        <v>12.56417724376422</v>
       </c>
       <c r="C15">
-        <v>1.008286174138732</v>
+        <v>4.107705386866996</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.6739363772747566</v>
+        <v>2.970471671707685</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032657</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.002390343017841352</v>
+        <v>0.000649209211897711</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.536461223817298</v>
+        <v>1.714622701052008</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.190981000404236</v>
+        <v>11.47922066055912</v>
       </c>
       <c r="C16">
-        <v>0.9452209064223211</v>
+        <v>3.744289747295852</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.6307150366178007</v>
+        <v>2.689074652227177</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.002395547707982758</v>
+        <v>0.0006630708176159428</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.525032935238301</v>
+        <v>1.632523179023508</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.074117127045156</v>
+        <v>10.84583379197488</v>
       </c>
       <c r="C17">
-        <v>0.9066637692233712</v>
+        <v>3.532887339661841</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.6043016352017929</v>
+        <v>2.527373604877837</v>
       </c>
       <c r="F17">
-        <v>0.6400460337216174</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.00239880171493173</v>
+        <v>0.0006713277726796341</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.518191974814272</v>
+        <v>1.587017602303661</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.007087521757057</v>
+        <v>10.49151062828798</v>
       </c>
       <c r="C18">
-        <v>0.8845329435203553</v>
+        <v>3.414858100280583</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.5891447999221668</v>
+        <v>2.437699029772091</v>
       </c>
       <c r="F18">
-        <v>0.6244449056557215</v>
+        <v>2.107028586650742</v>
       </c>
       <c r="G18">
-        <v>0.002400695888542229</v>
+        <v>0.0006760047818823375</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.514318600326305</v>
+        <v>1.56236612143698</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.984424101454351</v>
+        <v>10.37310792525648</v>
       </c>
       <c r="C19">
-        <v>0.8770475717351474</v>
+        <v>3.375452794269563</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.5840188725112654</v>
+        <v>2.407854386151556</v>
       </c>
       <c r="F19">
-        <v>0.6191636801734006</v>
+        <v>2.087706772602957</v>
       </c>
       <c r="G19">
-        <v>0.002401341106540452</v>
+        <v>0.0006775774340022889</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.513017579999911</v>
+        <v>1.554259593206126</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.086537962853072</v>
+        <v>10.91218857334866</v>
       </c>
       <c r="C20">
-        <v>0.9107634127544202</v>
+        <v>3.555009112261246</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.6071096762427715</v>
+        <v>2.544228616817108</v>
       </c>
       <c r="F20">
-        <v>0.6429339538360921</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.002398452988234602</v>
+        <v>0.000670456644623701</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.518913831448344</v>
+        <v>1.591698931197925</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.431905675771077</v>
+        <v>12.85604092739027</v>
       </c>
       <c r="C21">
-        <v>1.024610693828947</v>
+        <v>4.205760044695637</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.6851281758088277</v>
+        <v>3.047175789590227</v>
       </c>
       <c r="F21">
-        <v>0.7228739723492197</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.002389018075002979</v>
+        <v>0.0006455361478911742</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.539465207076148</v>
+        <v>1.737577594072292</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.659414627157389</v>
+        <v>14.26233707885797</v>
       </c>
       <c r="C22">
-        <v>1.099472183521755</v>
+        <v>4.680071231060936</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.7364730819928269</v>
+        <v>3.423240717759157</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.002383050494854145</v>
+        <v>0.0006281351157906513</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.553466335860037</v>
+        <v>1.853169987919301</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.537818890525841</v>
+        <v>13.4963153613993</v>
       </c>
       <c r="C23">
-        <v>1.059473324968621</v>
+        <v>4.421321545565547</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.7090348760984426</v>
+        <v>3.21702729754881</v>
       </c>
       <c r="F23">
-        <v>0.7472568307916134</v>
+        <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.002386217430972703</v>
+        <v>0.0006375547991435138</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.5459404125898</v>
+        <v>1.789192544081374</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.080922015330543</v>
+        <v>10.8821594211438</v>
       </c>
       <c r="C24">
-        <v>0.9089098516876106</v>
+        <v>3.544997087074591</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.6058400722986477</v>
+        <v>2.536598378434263</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921573052</v>
       </c>
       <c r="G24">
-        <v>0.002398610574551041</v>
+        <v>0.0006708506953838121</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.518587294725734</v>
+        <v>1.589577859538139</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.595180027534525</v>
+        <v>8.437408398522223</v>
       </c>
       <c r="C25">
-        <v>0.7482448054573752</v>
+        <v>2.733645462362574</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.4958609936548584</v>
+        <v>1.928058455383152</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347308</v>
+        <v>1.757113814925418</v>
       </c>
       <c r="G25">
-        <v>0.00241284220073668</v>
+        <v>0.0007040704477150621</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.49141544874891</v>
+        <v>1.431494894968495</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_57/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_57/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.819349775725811</v>
+        <v>0.9857739976869482</v>
       </c>
       <c r="C2">
-        <v>2.200290466772401</v>
+        <v>0.2257557952203229</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.537707027434948</v>
+        <v>1.276661775229883</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.000727608925439107</v>
+        <v>0.5672242698138774</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.00344414881333277</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.0005796496141758922</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.4339378698358018</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.3832564570203374</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.160738495636878</v>
       </c>
       <c r="N2">
-        <v>1.344269324948868</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0.8369254603807099</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.793867033069375</v>
+        <v>0.8572953405552823</v>
       </c>
       <c r="C3">
-        <v>1.863513221551614</v>
+        <v>0.1964440475588702</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.294815725449823</v>
+        <v>1.109594119831812</v>
       </c>
       <c r="F3">
-        <v>1.260820407314654</v>
+        <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.0007434048735841809</v>
+        <v>0.5373983676053911</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.001861408504535422</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.001022183946524091</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.4244836033497705</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.3773009573272503</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1.009054635496625</v>
       </c>
       <c r="N3">
-        <v>1.297288951667937</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0.8682433657580444</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.189433218214276</v>
+        <v>0.7780865666186969</v>
       </c>
       <c r="C4">
-        <v>1.665392678265619</v>
+        <v>0.1786729633760444</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.153156825785203</v>
+        <v>1.007281013155591</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.0007531231735833756</v>
+        <v>0.5194174263449867</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.001106932314167697</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.001502240006193034</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.4189053491101902</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.373796052265682</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.9159176931403863</v>
       </c>
       <c r="N4">
-        <v>1.27301836531278</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0.8879712876981847</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.948284929538602</v>
+        <v>0.7448598461575955</v>
       </c>
       <c r="C5">
-        <v>1.586417200967787</v>
+        <v>0.171816092139963</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.096935365035577</v>
+        <v>0.9656224760797585</v>
       </c>
       <c r="F5">
-        <v>1.090973950927989</v>
+        <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.0007570998951364512</v>
+        <v>0.511365432104455</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0008497069068524876</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.001819858827550203</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.4162733488026902</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.3718749749862305</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.8776570685734555</v>
       </c>
       <c r="N5">
-        <v>1.264109443365399</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0.8959207853016569</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4.908523771006401</v>
+        <v>0.7382814930460313</v>
       </c>
       <c r="C6">
-        <v>1.573398896939921</v>
+        <v>0.1710900461997795</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.087681187268416</v>
+        <v>0.9586897742693878</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.000757761517849741</v>
+        <v>0.5090555563338341</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0008090937642002416</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.001971392498004931</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.4153358674953296</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.3709134194927763</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.8709416134591095</v>
       </c>
       <c r="N6">
-        <v>1.262685020970039</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0.8969932472328761</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.186161506554868</v>
+        <v>0.7747442946218541</v>
       </c>
       <c r="C7">
-        <v>1.664320957485131</v>
+        <v>0.1797013623416319</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.152392949057329</v>
+        <v>1.00666930555299</v>
       </c>
       <c r="F7">
         <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.0007531767247371943</v>
+        <v>0.5166379722160315</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.001100445891693225</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.001751921946945068</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.4174951790040637</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.3720095153065905</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.9144106671766963</v>
       </c>
       <c r="N7">
-        <v>1.272894444045107</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0.8873981628295766</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.459748829915895</v>
+        <v>0.9376653173495697</v>
       </c>
       <c r="C8">
-        <v>2.082094162177839</v>
+        <v>0.2170946473936652</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.452155388505389</v>
+        <v>1.218919815913168</v>
       </c>
       <c r="F8">
-        <v>1.39074283177348</v>
+        <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.0007330589633447588</v>
+        <v>0.5533303982751789</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.002845365110319742</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.000978714684951143</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.4288159505226048</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.3788463051411135</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1.1071018958732</v>
       </c>
       <c r="N8">
-        <v>1.327008859774509</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0.8467957111144448</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.225557124167096</v>
+        <v>1.260088080167208</v>
       </c>
       <c r="C9">
-        <v>2.994437373045741</v>
+        <v>0.2904789554566776</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>2.121627054627879</v>
+        <v>1.638214684394569</v>
       </c>
       <c r="F9">
-        <v>1.895061171845327</v>
+        <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.0006930935685051143</v>
+        <v>0.633117480460669</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.008174411518032609</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.0008839050431861395</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.4554460144601222</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.3967440509705256</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.487290528044667</v>
       </c>
       <c r="N9">
-        <v>1.479200605520646</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0.772410987583029</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.55297188948748</v>
+        <v>1.486372981719882</v>
       </c>
       <c r="C10">
-        <v>3.768940704481054</v>
+        <v>0.3416823678551566</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.708023037345015</v>
+        <v>1.849955590392938</v>
       </c>
       <c r="F10">
-        <v>2.275587181990957</v>
+        <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0.0006621176190054509</v>
+        <v>0.6780430648286995</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.01304644984731729</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.002162650395388432</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.4684720452452069</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.4031809924427776</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.753439314981534</v>
       </c>
       <c r="N10">
-        <v>1.637939705774556</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0.7190603724392695</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.72308242618931</v>
+        <v>1.513917201798193</v>
       </c>
       <c r="C11">
-        <v>4.161075432945722</v>
+        <v>0.324935657248858</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>3.012178469015893</v>
+        <v>1.180984304131684</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.0006472066235008178</v>
+        <v>0.5721596985154065</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02928877339999048</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.002903588593763828</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.411642093008183</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.3471959910061209</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.753765585883741</v>
       </c>
       <c r="N11">
-        <v>1.72707553966427</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0.6940350676780707</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.18852041652076</v>
+        <v>1.493883394125589</v>
       </c>
       <c r="C12">
-        <v>4.317617017534474</v>
+        <v>0.2995138217766566</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>3.135099412885054</v>
+        <v>0.7018823796418303</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.0006413788377011026</v>
+        <v>0.4846498166999567</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.06604125930413574</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.002835223984537727</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.366151606614693</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.3050505515735153</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.699877438344004</v>
       </c>
       <c r="N12">
-        <v>1.76416599660331</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0.6966285515596837</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.08715134311205</v>
+        <v>1.431721613223829</v>
       </c>
       <c r="C13">
-        <v>4.283495215404059</v>
+        <v>0.2679641746699986</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>3.108230049203684</v>
+        <v>0.3412833392571244</v>
       </c>
       <c r="F13">
         <v>2.504295469238414</v>
       </c>
       <c r="G13">
-        <v>0.0006426433791618141</v>
+        <v>0.4020813038001165</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1199906789810541</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.002495278417009139</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.3245543080471265</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.2682601483222129</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.600138345312473</v>
       </c>
       <c r="N13">
-        <v>1.756010269208815</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0.7182784710467587</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.76087916074539</v>
+        <v>1.368697093553976</v>
       </c>
       <c r="C14">
-        <v>4.173775432464311</v>
+        <v>0.2438328310285556</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>3.02211794576094</v>
+        <v>0.1606893491629293</v>
       </c>
       <c r="F14">
-        <v>2.457142640142266</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.0006467312783820703</v>
+        <v>0.3473157764657202</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1682088129577721</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.002248646696502377</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2974877933653062</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.2451913261969629</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.510106408345337</v>
       </c>
       <c r="N14">
-        <v>1.730053374068746</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0.743108591264523</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.56417724376422</v>
+        <v>1.343388093746114</v>
       </c>
       <c r="C15">
-        <v>4.107705386866996</v>
+        <v>0.2369016158051522</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2.970471671707685</v>
+        <v>0.1256591022041711</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.000649209211897711</v>
+        <v>0.333531072654722</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1803500209531848</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.002248098211765637</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2910127013327468</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.2398482647276658</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.478176144107039</v>
       </c>
       <c r="N15">
-        <v>1.714622701052008</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0.7518891833453907</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.47922066055912</v>
+        <v>1.258815597921</v>
       </c>
       <c r="C16">
-        <v>3.744289747295852</v>
+        <v>0.2229411446370335</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2.689074652227177</v>
+        <v>0.1226064039997468</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0.0006630708176159428</v>
+        <v>0.3309679620299306</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.166281461869076</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.00193569063295751</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2935087394489386</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.2438908200651433</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.386466054596667</v>
       </c>
       <c r="N16">
-        <v>1.632523179023508</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0.766761921369131</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.84583379197488</v>
+        <v>1.227081704715033</v>
       </c>
       <c r="C17">
-        <v>3.532887339661841</v>
+        <v>0.2248426949442432</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.527373604877837</v>
+        <v>0.2025889975903326</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.0006713277726796341</v>
+        <v>0.3571853411723609</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1280094263153586</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.001851073872757958</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.3094589294498604</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.2588432068133173</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.36342432074963</v>
       </c>
       <c r="N17">
-        <v>1.587017602303661</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0.7647322341275071</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.49151062828798</v>
+        <v>1.239613346726401</v>
       </c>
       <c r="C18">
-        <v>3.414858100280583</v>
+        <v>0.2405008547518719</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.437699029772091</v>
+        <v>0.425428645197286</v>
       </c>
       <c r="F18">
-        <v>2.107028586650742</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.0006760047818823375</v>
+        <v>0.4164120305757137</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07559687996504749</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.001621820874211366</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.3412373174602976</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.2877784566012025</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.398092548114789</v>
       </c>
       <c r="N18">
-        <v>1.56236612143698</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0.7527070534058318</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.37310792525648</v>
+        <v>1.281961243758673</v>
       </c>
       <c r="C19">
-        <v>3.375452794269563</v>
+        <v>0.2693625580180736</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2.407854386151556</v>
+        <v>0.8434585116108337</v>
       </c>
       <c r="F19">
-        <v>2.087706772602957</v>
+        <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0.0006775774340022889</v>
+        <v>0.5003075034873206</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.03197997099427852</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.001828684471663067</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.3842173509717668</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.3266215512331456</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.476424418298507</v>
       </c>
       <c r="N19">
-        <v>1.554259593206126</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0.7422801026474524</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.91218857334866</v>
+        <v>1.417386987478466</v>
       </c>
       <c r="C20">
-        <v>3.555009112261246</v>
+        <v>0.3315046280973775</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.544228616817108</v>
+        <v>1.789886348415351</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.000670456644623701</v>
+        <v>0.6572041475295265</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.01161137324349015</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.002466768936282726</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.4604384455471973</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.3957584975689556</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.679695269961883</v>
       </c>
       <c r="N20">
-        <v>1.591698931197925</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0.7313576511562381</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.85604092739027</v>
+        <v>1.605201956989276</v>
       </c>
       <c r="C21">
-        <v>4.205760044695637</v>
+        <v>0.3784007502919167</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>3.047175789590227</v>
+        <v>2.10727334164369</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.0006455361478911742</v>
+        <v>0.7173304829297678</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.01657722971704123</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.003827092236957874</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.4832377113982886</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.4128933775209873</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.906448552168996</v>
       </c>
       <c r="N21">
-        <v>1.737577594072292</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0.6938012227471484</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.26233707885797</v>
+        <v>1.727710696069238</v>
       </c>
       <c r="C22">
-        <v>4.680071231060936</v>
+        <v>0.4054584896733502</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>3.423240717759157</v>
+        <v>2.265263986741445</v>
       </c>
       <c r="F22">
         <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.0006281351157906513</v>
+        <v>0.7532261374878431</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.0199426711074735</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.004704537210275639</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.4965305372137152</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.4231148383127987</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>2.049500424697811</v>
       </c>
       <c r="N22">
-        <v>1.853169987919301</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0.6697982498258672</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.4963153613993</v>
+        <v>1.66587838798435</v>
       </c>
       <c r="C23">
-        <v>4.421321545565547</v>
+        <v>0.3896016683268329</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>3.21702729754881</v>
+        <v>2.18092352346612</v>
       </c>
       <c r="F23">
         <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.0006375547991435138</v>
+        <v>0.7371445759984425</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.01812450097182228</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.003931998433774453</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.4909959802314603</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.4196744487210893</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.97433587369045</v>
       </c>
       <c r="N23">
-        <v>1.789192544081374</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0.6830722671053016</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.8821594211438</v>
+        <v>1.426095765204792</v>
       </c>
       <c r="C24">
-        <v>3.544997087074591</v>
+        <v>0.332584880336924</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.536598378434263</v>
+        <v>1.863377060173761</v>
       </c>
       <c r="F24">
-        <v>2.170038921573052</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.0006708506953838121</v>
+        <v>0.6727288694501254</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.01191030066000492</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.002026511810011122</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.4683081893183214</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.4040320460666891</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.688738461633278</v>
       </c>
       <c r="N24">
-        <v>1.589577859538139</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0.7338082860148152</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.437408398522223</v>
+        <v>1.167717901767247</v>
       </c>
       <c r="C25">
-        <v>2.733645462362574</v>
+        <v>0.2724316673198359</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.928058455383152</v>
+        <v>1.524232305545695</v>
       </c>
       <c r="F25">
-        <v>1.757113814925418</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.0007040704477150621</v>
+        <v>0.6063216378105949</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.006492925144708894</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.00110629732415557</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.4455403053006251</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.3885824161947227</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.382454799539175</v>
       </c>
       <c r="N25">
-        <v>1.431494894968495</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.7910812281661057</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_57/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_57/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9857739976869482</v>
+        <v>0.9276067416358558</v>
       </c>
       <c r="C2">
-        <v>0.2257557952203229</v>
+        <v>0.245651335623208</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.276661775229883</v>
+        <v>1.278927575417583</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.5672242698138774</v>
+        <v>0.4853939649390355</v>
       </c>
       <c r="H2">
-        <v>0.00344414881333277</v>
+        <v>0.003640060726657346</v>
       </c>
       <c r="I2">
-        <v>0.0005796496141758922</v>
+        <v>0.0005544567676158962</v>
       </c>
       <c r="J2">
-        <v>0.4339378698358018</v>
+        <v>0.4293836266735411</v>
       </c>
       <c r="K2">
-        <v>0.3832564570203374</v>
+        <v>0.3342989181338716</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1712691015495267</v>
       </c>
       <c r="M2">
-        <v>1.160738495636878</v>
+        <v>0.08803374268940445</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.142164417400267</v>
       </c>
       <c r="P2">
-        <v>0.8369254603807099</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0.8061021950204301</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8572953405552823</v>
+        <v>0.8113402399206393</v>
       </c>
       <c r="C3">
-        <v>0.1964440475588702</v>
+        <v>0.2115653241710049</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.109594119831812</v>
+        <v>1.112411283227758</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.5373983676053911</v>
+        <v>0.4653486933690658</v>
       </c>
       <c r="H3">
-        <v>0.001861408504535422</v>
+        <v>0.00205918930958493</v>
       </c>
       <c r="I3">
-        <v>0.001022183946524091</v>
+        <v>0.0007418336501348044</v>
       </c>
       <c r="J3">
-        <v>0.4244836033497705</v>
+        <v>0.4206876558782113</v>
       </c>
       <c r="K3">
-        <v>0.3773009573272503</v>
+        <v>0.3328876524484485</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1752777943127484</v>
       </c>
       <c r="M3">
-        <v>1.009054635496625</v>
+        <v>0.08421855850710003</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.9950401931866679</v>
       </c>
       <c r="P3">
-        <v>0.8682433657580444</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0.8347740229713079</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7780865666186969</v>
+        <v>0.7394126383579476</v>
       </c>
       <c r="C4">
-        <v>0.1786729633760444</v>
+        <v>0.1909490802005678</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.007281013155591</v>
+        <v>1.010374430753572</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.5194174263449867</v>
+        <v>0.4533272174975949</v>
       </c>
       <c r="H4">
-        <v>0.001106932314167697</v>
+        <v>0.001286885122905534</v>
       </c>
       <c r="I4">
-        <v>0.001502240006193034</v>
+        <v>0.001022234178271741</v>
       </c>
       <c r="J4">
-        <v>0.4189053491101902</v>
+        <v>0.4153365422061199</v>
       </c>
       <c r="K4">
-        <v>0.373796052265682</v>
+        <v>0.3320741018322622</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1777570998118101</v>
       </c>
       <c r="M4">
-        <v>0.9159176931403863</v>
+        <v>0.08240908770225097</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.9045679679082355</v>
       </c>
       <c r="P4">
-        <v>0.8879712876981847</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0.8529241751352101</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7448598461575955</v>
+        <v>0.7091582520834265</v>
       </c>
       <c r="C5">
-        <v>0.171816092139963</v>
+        <v>0.182959037321055</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.9656224760797585</v>
+        <v>0.9688153047974311</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.511365432104455</v>
+        <v>0.4477771320416224</v>
       </c>
       <c r="H5">
-        <v>0.0008497069068524876</v>
+        <v>0.00101795506933855</v>
       </c>
       <c r="I5">
-        <v>0.001819858827550203</v>
+        <v>0.001259835084269412</v>
       </c>
       <c r="J5">
-        <v>0.4162733488026902</v>
+        <v>0.4127645089215122</v>
       </c>
       <c r="K5">
-        <v>0.3718749749862305</v>
+        <v>0.3312921426012494</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1785442843603278</v>
       </c>
       <c r="M5">
-        <v>0.8776570685734555</v>
+        <v>0.08168346776917801</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.8673765140527507</v>
       </c>
       <c r="P5">
-        <v>0.8959207853016569</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0.8603279109167503</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7382814930460313</v>
+        <v>0.7031409560494808</v>
       </c>
       <c r="C6">
-        <v>0.1710900461997795</v>
+        <v>0.1820521701735629</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.9586897742693878</v>
+        <v>0.961899275111648</v>
       </c>
       <c r="F6">
         <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.5090555563338341</v>
+        <v>0.4459860389965442</v>
       </c>
       <c r="H6">
-        <v>0.0008090937642002416</v>
+        <v>0.0009751296375153373</v>
       </c>
       <c r="I6">
-        <v>0.001971392498004931</v>
+        <v>0.001413050860542775</v>
       </c>
       <c r="J6">
-        <v>0.4153358674953296</v>
+        <v>0.4118643858837032</v>
       </c>
       <c r="K6">
-        <v>0.3709134194927763</v>
+        <v>0.3305996954962609</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1783983480101945</v>
       </c>
       <c r="M6">
-        <v>0.8709416134591095</v>
+        <v>0.08142270449779687</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.8608548185117968</v>
       </c>
       <c r="P6">
-        <v>0.8969932472328761</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0.8614150711019315</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7747442946218541</v>
+        <v>0.7356074762569733</v>
       </c>
       <c r="C7">
-        <v>0.1797013623416319</v>
+        <v>0.1913269449735964</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.00666930555299</v>
+        <v>1.009729952429467</v>
       </c>
       <c r="F7">
         <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.5166379722160315</v>
+        <v>0.4533314861207103</v>
       </c>
       <c r="H7">
-        <v>0.001100445891693225</v>
+        <v>0.00127808424788145</v>
       </c>
       <c r="I7">
-        <v>0.001751921946945068</v>
+        <v>0.001313888976256727</v>
       </c>
       <c r="J7">
-        <v>0.4174951790040637</v>
+        <v>0.4089744205279757</v>
       </c>
       <c r="K7">
-        <v>0.3720095153065905</v>
+        <v>0.329840019833803</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1767001183477248</v>
       </c>
       <c r="M7">
-        <v>0.9144106671766963</v>
+        <v>0.08178754798082544</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.9016536934046258</v>
       </c>
       <c r="P7">
-        <v>0.8873981628295766</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0.8524627618991794</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9376653173495697</v>
+        <v>0.881687965986174</v>
       </c>
       <c r="C8">
-        <v>0.2170946473936652</v>
+        <v>0.2331539154919113</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.218919815913168</v>
+        <v>1.221266345982215</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.5533303982751789</v>
+        <v>0.4835287196223987</v>
       </c>
       <c r="H8">
-        <v>0.002845365110319742</v>
+        <v>0.003035864534196575</v>
       </c>
       <c r="I8">
-        <v>0.000978714684951143</v>
+        <v>0.0009298101978947315</v>
       </c>
       <c r="J8">
-        <v>0.4288159505226048</v>
+        <v>0.4082702989248332</v>
       </c>
       <c r="K8">
-        <v>0.3788463051411135</v>
+        <v>0.3295506503617709</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1707680717695368</v>
       </c>
       <c r="M8">
-        <v>1.1071018958732</v>
+        <v>0.08527664044008887</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.085261699988138</v>
       </c>
       <c r="P8">
-        <v>0.8467957111144448</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0.8150654235106281</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.260088080167208</v>
+        <v>1.171409271506576</v>
       </c>
       <c r="C9">
-        <v>0.2904789554566776</v>
+        <v>0.3182541370815386</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.638214684394569</v>
+        <v>1.638704843827227</v>
       </c>
       <c r="F9">
         <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.633117480460669</v>
+        <v>0.5406569789863198</v>
       </c>
       <c r="H9">
-        <v>0.008174411518032609</v>
+        <v>0.008229288250721112</v>
       </c>
       <c r="I9">
-        <v>0.0008839050431861395</v>
+        <v>0.001144760977664028</v>
       </c>
       <c r="J9">
-        <v>0.4554460144601222</v>
+        <v>0.4269818598495334</v>
       </c>
       <c r="K9">
-        <v>0.3967440509705256</v>
+        <v>0.334693844049621</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1616598138851728</v>
       </c>
       <c r="M9">
-        <v>1.487290528044667</v>
+        <v>0.09795884873341976</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.451686668409735</v>
       </c>
       <c r="P9">
-        <v>0.772410987583029</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0.7473504939188356</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.486372981719882</v>
+        <v>1.370204862243099</v>
       </c>
       <c r="C10">
-        <v>0.3416823678551566</v>
+        <v>0.3735688834105702</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1.849955590392938</v>
+        <v>1.848476522888546</v>
       </c>
       <c r="F10">
         <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0.6780430648286995</v>
+        <v>0.5861473995892368</v>
       </c>
       <c r="H10">
-        <v>0.01304644984731729</v>
+        <v>0.0128565472253781</v>
       </c>
       <c r="I10">
-        <v>0.002162650395388432</v>
+        <v>0.002385094614380634</v>
       </c>
       <c r="J10">
-        <v>0.4684720452452069</v>
+        <v>0.4072392173466994</v>
       </c>
       <c r="K10">
-        <v>0.4031809924427776</v>
+        <v>0.3293647932782449</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1516665574076441</v>
       </c>
       <c r="M10">
-        <v>1.753439314981534</v>
+        <v>0.1061293765286067</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.69874495376564</v>
       </c>
       <c r="P10">
-        <v>0.7190603724392695</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0.7013246205885562</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.513917201798193</v>
+        <v>1.394810461920571</v>
       </c>
       <c r="C11">
-        <v>0.324935657248858</v>
+        <v>0.3444661976787984</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1.180984304131684</v>
+        <v>1.179340750853598</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.5721596985154065</v>
+        <v>0.5236971401860018</v>
       </c>
       <c r="H11">
-        <v>0.02928877339999048</v>
+        <v>0.02903985305503198</v>
       </c>
       <c r="I11">
-        <v>0.002903588593763828</v>
+        <v>0.003170248769700734</v>
       </c>
       <c r="J11">
-        <v>0.411642093008183</v>
+        <v>0.3156935134596779</v>
       </c>
       <c r="K11">
-        <v>0.3471959910061209</v>
+        <v>0.2783278085165009</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1305640819974876</v>
       </c>
       <c r="M11">
-        <v>1.753765585883741</v>
+        <v>0.0899089444456429</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.682333202554901</v>
       </c>
       <c r="P11">
-        <v>0.6940350676780707</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0.699848843787219</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.493883394125589</v>
+        <v>1.380449737276706</v>
       </c>
       <c r="C12">
-        <v>0.2995138217766566</v>
+        <v>0.310887832872254</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.7018823796418303</v>
+        <v>0.7006119117454404</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.4846498166999567</v>
+        <v>0.4592089099344747</v>
       </c>
       <c r="H12">
-        <v>0.06604125930413574</v>
+        <v>0.06581017280752377</v>
       </c>
       <c r="I12">
-        <v>0.002835223984537727</v>
+        <v>0.003099687522464478</v>
       </c>
       <c r="J12">
-        <v>0.366151606614693</v>
+        <v>0.2697107947151451</v>
       </c>
       <c r="K12">
-        <v>0.3050505515735153</v>
+        <v>0.2446038362505689</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1182316563440349</v>
       </c>
       <c r="M12">
-        <v>1.699877438344004</v>
+        <v>0.07721426637574424</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.624043529446226</v>
       </c>
       <c r="P12">
-        <v>0.6966285515596837</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0.7198479956338062</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.431721613223829</v>
+        <v>1.333001703145754</v>
       </c>
       <c r="C13">
-        <v>0.2679641746699986</v>
+        <v>0.2751047552594628</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.3412833392571244</v>
+        <v>0.340580044347881</v>
       </c>
       <c r="F13">
         <v>2.504295469238414</v>
       </c>
       <c r="G13">
-        <v>0.4020813038001165</v>
+        <v>0.38245195893073</v>
       </c>
       <c r="H13">
-        <v>0.1199906789810541</v>
+        <v>0.1198294178166037</v>
       </c>
       <c r="I13">
-        <v>0.002495278417009139</v>
+        <v>0.002801326545401217</v>
       </c>
       <c r="J13">
-        <v>0.3245543080471265</v>
+        <v>0.2505642606541159</v>
       </c>
       <c r="K13">
-        <v>0.2682601483222129</v>
+        <v>0.2198533955312847</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1102616435275205</v>
       </c>
       <c r="M13">
-        <v>1.600138345312473</v>
+        <v>0.06621710156955984</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.532581179506366</v>
       </c>
       <c r="P13">
-        <v>0.7182784710467587</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0.7514985657607198</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.368697093553976</v>
+        <v>1.284116336101334</v>
       </c>
       <c r="C14">
-        <v>0.2438328310285556</v>
+        <v>0.2495027004212318</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1606893491629293</v>
+        <v>0.1603391328356452</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.3473157764657202</v>
+        <v>0.3258854987700559</v>
       </c>
       <c r="H14">
-        <v>0.1682088129577721</v>
+        <v>0.168109147999516</v>
       </c>
       <c r="I14">
-        <v>0.002248646696502377</v>
+        <v>0.002606280925472326</v>
       </c>
       <c r="J14">
-        <v>0.2974877933653062</v>
+        <v>0.2455332681198144</v>
       </c>
       <c r="K14">
-        <v>0.2451913261969629</v>
+        <v>0.2060612645492395</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1062307874717323</v>
       </c>
       <c r="M14">
-        <v>1.510106408345337</v>
+        <v>0.05933243121126708</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.453509652005721</v>
       </c>
       <c r="P14">
-        <v>0.743108591264523</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0.778385508970743</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.343388093746114</v>
+        <v>1.264023639456923</v>
       </c>
       <c r="C15">
-        <v>0.2369016158051522</v>
+        <v>0.2427466503700799</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1256591022041711</v>
+        <v>0.1254081626402481</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.333531072654722</v>
+        <v>0.3096443368911039</v>
       </c>
       <c r="H15">
-        <v>0.1803500209531848</v>
+        <v>0.1802745316883119</v>
       </c>
       <c r="I15">
-        <v>0.002248098211765637</v>
+        <v>0.002644894302764378</v>
       </c>
       <c r="J15">
-        <v>0.2910127013327468</v>
+        <v>0.2473201846847886</v>
       </c>
       <c r="K15">
-        <v>0.2398482647276658</v>
+        <v>0.2035408551717257</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1056657206525902</v>
       </c>
       <c r="M15">
-        <v>1.478176144107039</v>
+        <v>0.0577258672805474</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.426498802060053</v>
       </c>
       <c r="P15">
-        <v>0.7518891833453907</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0.7858997770716272</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.258815597921</v>
+        <v>1.194282940829481</v>
       </c>
       <c r="C16">
-        <v>0.2229411446370335</v>
+        <v>0.232981515089989</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1226064039997468</v>
+        <v>0.1226558740786601</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0.3309679620299306</v>
+        <v>0.290412246057123</v>
       </c>
       <c r="H16">
-        <v>0.166281461869076</v>
+        <v>0.1662947982937908</v>
       </c>
       <c r="I16">
-        <v>0.00193569063295751</v>
+        <v>0.002388158572738774</v>
       </c>
       <c r="J16">
-        <v>0.2935087394489386</v>
+        <v>0.2779939503576614</v>
       </c>
       <c r="K16">
-        <v>0.2438908200651433</v>
+        <v>0.2126530148727017</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1102396449057697</v>
       </c>
       <c r="M16">
-        <v>1.386466054596667</v>
+        <v>0.05872346929696093</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.353705582769862</v>
       </c>
       <c r="P16">
-        <v>0.766761921369131</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0.787349134846913</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.227081704715033</v>
+        <v>1.165430249774033</v>
       </c>
       <c r="C17">
-        <v>0.2248426949442432</v>
+        <v>0.2382427148045849</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2025889975903326</v>
+        <v>0.2028080522148841</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.3571853411723609</v>
+        <v>0.3059817223562789</v>
       </c>
       <c r="H17">
-        <v>0.1280094263153586</v>
+        <v>0.1280566685792479</v>
       </c>
       <c r="I17">
-        <v>0.001851073872757958</v>
+        <v>0.002316521677276917</v>
       </c>
       <c r="J17">
-        <v>0.3094589294498604</v>
+        <v>0.3048762619416436</v>
       </c>
       <c r="K17">
-        <v>0.2588432068133173</v>
+        <v>0.226817933626652</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1162756897212791</v>
       </c>
       <c r="M17">
-        <v>1.36342432074963</v>
+        <v>0.06273455064754785</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.33741975148456</v>
       </c>
       <c r="P17">
-        <v>0.7647322341275071</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0.7770703103099663</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.239613346726401</v>
+        <v>1.172404091526033</v>
       </c>
       <c r="C18">
-        <v>0.2405008547518719</v>
+        <v>0.2583835255408928</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.425428645197286</v>
+        <v>0.4257601480693296</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.4164120305757137</v>
+        <v>0.3528024601521196</v>
       </c>
       <c r="H18">
-        <v>0.07559687996504749</v>
+        <v>0.07565206191323171</v>
       </c>
       <c r="I18">
-        <v>0.001621820874211366</v>
+        <v>0.002042733149863807</v>
       </c>
       <c r="J18">
-        <v>0.3412373174602976</v>
+        <v>0.3380484818851741</v>
       </c>
       <c r="K18">
-        <v>0.2877784566012025</v>
+        <v>0.250191149129968</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1255436767394027</v>
       </c>
       <c r="M18">
-        <v>1.398092548114789</v>
+        <v>0.07084413789325872</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.37244772731222</v>
       </c>
       <c r="P18">
-        <v>0.7527070534058318</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0.7575444565199092</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.281961243758673</v>
+        <v>1.203653705734354</v>
       </c>
       <c r="C19">
-        <v>0.2693625580180736</v>
+        <v>0.2931328443163181</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.8434585116108337</v>
+        <v>0.8437541502184587</v>
       </c>
       <c r="F19">
         <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0.5003075034873206</v>
+        <v>0.4215491260564903</v>
       </c>
       <c r="H19">
-        <v>0.03197997099427852</v>
+        <v>0.03202073911674574</v>
       </c>
       <c r="I19">
-        <v>0.001828684471663067</v>
+        <v>0.002277624194144678</v>
       </c>
       <c r="J19">
-        <v>0.3842173509717668</v>
+        <v>0.3763118336108988</v>
       </c>
       <c r="K19">
-        <v>0.3266215512331456</v>
+        <v>0.2799042244406067</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1369278774256824</v>
       </c>
       <c r="M19">
-        <v>1.476424418298507</v>
+        <v>0.08191837026122073</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.447212507841869</v>
       </c>
       <c r="P19">
-        <v>0.7422801026474524</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0.7386441748533414</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.417386987478466</v>
+        <v>1.311956179865007</v>
       </c>
       <c r="C20">
-        <v>0.3315046280973775</v>
+        <v>0.3648024797130915</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.789886348415351</v>
+        <v>1.789127208215106</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.6572041475295265</v>
+        <v>0.5571568950596344</v>
       </c>
       <c r="H20">
-        <v>0.01161137324349015</v>
+        <v>0.01151690808989381</v>
       </c>
       <c r="I20">
-        <v>0.002466768936282726</v>
+        <v>0.002892377183933093</v>
       </c>
       <c r="J20">
-        <v>0.4604384455471973</v>
+        <v>0.4251121424497342</v>
       </c>
       <c r="K20">
-        <v>0.3957584975689556</v>
+        <v>0.3283890860778129</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1533743752150905</v>
       </c>
       <c r="M20">
-        <v>1.679695269961883</v>
+        <v>0.102939427399992</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.635780144033163</v>
       </c>
       <c r="P20">
-        <v>0.7313576511562381</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0.7129938131407858</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.605201956989276</v>
+        <v>1.461325948827067</v>
       </c>
       <c r="C21">
-        <v>0.3784007502919167</v>
+        <v>0.4032531885544586</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.10727334164369</v>
+        <v>2.103799682154971</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.7173304829297678</v>
+        <v>0.6638236086889293</v>
       </c>
       <c r="H21">
-        <v>0.01657722971704123</v>
+        <v>0.01611361505427134</v>
       </c>
       <c r="I21">
-        <v>0.003827092236957874</v>
+        <v>0.00400268435493345</v>
       </c>
       <c r="J21">
-        <v>0.4832377113982886</v>
+        <v>0.3408384554745041</v>
       </c>
       <c r="K21">
-        <v>0.4128933775209873</v>
+        <v>0.3212936872339327</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1450381756114076</v>
       </c>
       <c r="M21">
-        <v>1.906448552168996</v>
+        <v>0.1084300326287497</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.817106678020849</v>
       </c>
       <c r="P21">
-        <v>0.6938012227471484</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0.6787561717983426</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.727710696069238</v>
+        <v>1.557640295205175</v>
       </c>
       <c r="C22">
-        <v>0.4054584896733502</v>
+        <v>0.4231854635270906</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2.265263986741445</v>
+        <v>2.259860268830764</v>
       </c>
       <c r="F22">
         <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.7532261374878431</v>
+        <v>0.7384311528136465</v>
       </c>
       <c r="H22">
-        <v>0.0199426711074735</v>
+        <v>0.01919199624364776</v>
       </c>
       <c r="I22">
-        <v>0.004704537210275639</v>
+        <v>0.004552537225881892</v>
       </c>
       <c r="J22">
-        <v>0.4965305372137152</v>
+        <v>0.2894100793126597</v>
       </c>
       <c r="K22">
-        <v>0.4231148383127987</v>
+        <v>0.3151035919220107</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1392801620236668</v>
       </c>
       <c r="M22">
-        <v>2.049500424697811</v>
+        <v>0.1115907627331048</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.927687145778521</v>
       </c>
       <c r="P22">
-        <v>0.6697982498258672</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0.6583533694185224</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.66587838798435</v>
+        <v>1.511460629975801</v>
       </c>
       <c r="C23">
-        <v>0.3896016683268329</v>
+        <v>0.412954019953844</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.18092352346612</v>
+        <v>2.176662134924271</v>
       </c>
       <c r="F23">
         <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.7371445759984425</v>
+        <v>0.6937785558278335</v>
       </c>
       <c r="H23">
-        <v>0.01812450097182228</v>
+        <v>0.01754450015894515</v>
       </c>
       <c r="I23">
-        <v>0.003931998433774453</v>
+        <v>0.003909048660841741</v>
       </c>
       <c r="J23">
-        <v>0.4909959802314603</v>
+        <v>0.3260158031168601</v>
       </c>
       <c r="K23">
-        <v>0.4196744487210893</v>
+        <v>0.3216488343975747</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1434104441762258</v>
       </c>
       <c r="M23">
-        <v>1.97433587369045</v>
+        <v>0.1112565774219725</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.873911537684052</v>
       </c>
       <c r="P23">
-        <v>0.6830722671053016</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0.6687375266663018</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.426095765204792</v>
+        <v>1.319208513868602</v>
       </c>
       <c r="C24">
-        <v>0.332584880336924</v>
+        <v>0.3665902046070926</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1.863377060173761</v>
+        <v>1.862559395971445</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.6727288694501254</v>
+        <v>0.5698687168825387</v>
       </c>
       <c r="H24">
-        <v>0.01191030066000492</v>
+        <v>0.01180932477245622</v>
       </c>
       <c r="I24">
-        <v>0.002026511810011122</v>
+        <v>0.002349611300107135</v>
       </c>
       <c r="J24">
-        <v>0.4683081893183214</v>
+        <v>0.4326014088384369</v>
       </c>
       <c r="K24">
-        <v>0.4040320460666891</v>
+        <v>0.3350004451101931</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1558974930438133</v>
       </c>
       <c r="M24">
-        <v>1.688738461633278</v>
+        <v>0.1054058785178178</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.644540224565077</v>
       </c>
       <c r="P24">
-        <v>0.7338082860148152</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0.7131495984491441</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.167717901767247</v>
+        <v>1.089530586671032</v>
       </c>
       <c r="C25">
-        <v>0.2724316673198359</v>
+        <v>0.2979760579453625</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.524232305545695</v>
+        <v>1.525367408889494</v>
       </c>
       <c r="F25">
         <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.6063216378105949</v>
+        <v>0.5170260864795466</v>
       </c>
       <c r="H25">
-        <v>0.006492925144708894</v>
+        <v>0.006612099916037839</v>
       </c>
       <c r="I25">
-        <v>0.00110629732415557</v>
+        <v>0.001412590411819181</v>
       </c>
       <c r="J25">
-        <v>0.4455403053006251</v>
+        <v>0.4266664540304532</v>
       </c>
       <c r="K25">
-        <v>0.3885824161947227</v>
+        <v>0.3315352728301626</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.163431854355057</v>
       </c>
       <c r="M25">
-        <v>1.382454799539175</v>
+        <v>0.09345134574110503</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.35297070263718</v>
       </c>
       <c r="P25">
-        <v>0.7910812281661057</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.7649694081063112</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
